--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="40" windowWidth="32600" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="35780" yWindow="460" windowWidth="32600" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
   <si>
     <t>Shortcut</t>
   </si>
@@ -235,14 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Python Console</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SN</t>
   </si>
   <si>
@@ -529,12 +529,6 @@
     <t>FN</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy Assignments </t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
@@ -560,6 +554,42 @@
   </si>
   <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snap to Extremum Current Selected Peaks </t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Move to Next Spectrum (and Hide Current)</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Move to Previous Spectrum (and Hide Current)</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Copy Peaks</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Copy PeakList</t>
+  </si>
+  <si>
+    <t>Select All Peaks</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+A</t>
   </si>
 </sst>
 </file>
@@ -832,8 +862,74 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1159,70 +1255,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46" style="3" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="34"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="20" thickBot="1">
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1">
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1">
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1">
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -1238,31 +1334,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1">
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
@@ -1270,63 +1366,63 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1">
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1">
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" customHeight="1">
+    <row r="23" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -1342,35 +1438,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="20" thickBot="1">
+    <row r="25" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="17" thickTop="1">
+    <row r="26" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" ht="18">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1">
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
@@ -1378,486 +1474,518 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" customHeight="1">
+    <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" customHeight="1">
-      <c r="A31" s="24" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="33"/>
+    </row>
+    <row r="71" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="25"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="24" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1">
-      <c r="A36" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1">
-      <c r="A37" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1">
-      <c r="A44" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="20"/>
-    </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1">
-      <c r="A45" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1">
-      <c r="A46" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1">
-      <c r="A51" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1">
-      <c r="A52" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A53" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A55" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1">
-      <c r="A56" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1">
-      <c r="A58" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1">
-      <c r="A59" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1">
-      <c r="A60" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1">
-      <c r="A63" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" ht="17" customHeight="1">
-      <c r="A64" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="B67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="17" customHeight="1">
-      <c r="A68" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1">
-      <c r="A69" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" customHeight="1">
-      <c r="A70" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="1:5" ht="17" customHeight="1">
-      <c r="A71" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1">
-      <c r="A72" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1">
-      <c r="A73" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1">
-      <c r="A74" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" ht="17" customHeight="1">
-      <c r="A76" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="17" customHeight="1">
-      <c r="A77" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" customHeight="1">
-      <c r="A78" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" customHeight="1">
-      <c r="A79" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17" customHeight="1">
-      <c r="A80" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17" customHeight="1">
-      <c r="A81" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1">
-      <c r="A82" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1">
-      <c r="A83" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1">
-      <c r="A84" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1">
-      <c r="A85" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1">
-      <c r="A86" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1">
-      <c r="A87" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1">
-      <c r="A88" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1">
-      <c r="A90" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:2" ht="17" customHeight="1">
-      <c r="A91" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17" customHeight="1">
-      <c r="A92" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17" customHeight="1">
-      <c r="A93" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="17" customHeight="1">
-      <c r="A94" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1868,12 +1996,13 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B39 B41:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>Shortcut</t>
   </si>
@@ -352,9 +352,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Analysis V3 shortcuts</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -590,6 +587,27 @@
   </si>
   <si>
     <t>Ctrl/Cmd+A</t>
+  </si>
+  <si>
+    <r>
+      <t>Analysis V3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>beta2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t xml:space="preserve"> shortcuts</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -599,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,6 +731,23 @@
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Lucida Grande"/>
     </font>
   </fonts>
@@ -724,7 +759,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -741,15 +776,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,14 +783,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,9 +812,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,12 +835,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -832,15 +846,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -854,6 +859,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -862,27 +885,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1255,143 +1258,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="B11" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1399,594 +1402,630 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="33"/>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="18"/>
+    </row>
+    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="20"/>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="33"/>
-    </row>
-    <row r="71" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="23"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="20" t="s">
+      <c r="B96" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="20"/>
-    </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="30" t="s">
+    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B97" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="30" t="s">
+    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="30" t="s">
+    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="26"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -1996,13 +2035,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B39 B41:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35780" yWindow="460" windowWidth="32600" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
   <si>
     <t>Shortcut</t>
   </si>
@@ -86,18 +81,12 @@
     <t>Spectrum :</t>
   </si>
   <si>
-    <t>Spectrum Groups</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
     <t>Set Experiment Types</t>
   </si>
   <si>
-    <t>Pick Peaks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete selected </t>
   </si>
   <si>
@@ -107,9 +96,6 @@
     <t>Del (Fn+Backspace)</t>
   </si>
   <si>
-    <t>Peak Integration (1D)</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -117,9 +103,6 @@
   </si>
   <si>
     <t>PJ</t>
-  </si>
-  <si>
-    <t>Create new molecule</t>
   </si>
   <si>
     <t>CM</t>
@@ -227,14 +210,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Show sequence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Assignment Inspector</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -273,9 +248,6 @@
     <t>Reserved for user macros</t>
   </si>
   <si>
-    <t>Q1, Q2, ...Q0</t>
-  </si>
-  <si>
     <t>Graphics :</t>
   </si>
   <si>
@@ -295,12 +267,6 @@
   </si>
   <si>
     <t>Toggle Vertical Trace</t>
-  </si>
-  <si>
-    <t>W1, W2, …W0</t>
-  </si>
-  <si>
-    <t>U1, U2, …U0</t>
   </si>
   <si>
     <t>CZ</t>
@@ -376,9 +342,6 @@
     <t>Peak Table</t>
   </si>
   <si>
-    <t>Run macro</t>
-  </si>
-  <si>
     <t>Save as</t>
   </si>
   <si>
@@ -436,9 +399,6 @@
     <t>PY</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
@@ -473,9 +433,6 @@
   </si>
   <si>
     <t xml:space="preserve">Move whole window </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Drag&amp;drop purple bar</t>
@@ -609,6 +566,142 @@
       <t xml:space="preserve"> shortcuts</t>
     </r>
   </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Toggle Phasing Pivot</t>
+  </si>
+  <si>
+    <t>Propagate Assignments</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Add Integral in 1D plot</t>
+  </si>
+  <si>
+    <t>Add Phasing Trace</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Remove Phasing Trace</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Show Sequence</t>
+  </si>
+  <si>
+    <t>Import Nef File</t>
+  </si>
+  <si>
+    <t>Export Nef File</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Show Spectrum Groups</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Pick 1D Peaks</t>
+  </si>
+  <si>
+    <t>Pick ND Peaks</t>
+  </si>
+  <si>
+    <t>Integral Table</t>
+  </si>
+  <si>
+    <t>Restraint Table</t>
+  </si>
+  <si>
+    <t>Structure Table</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Chemical Shift Mapping</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Notes Table</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Flip X-Y Axis</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Flip X-Z Axis</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>Flip Y-Z Axis</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>Define User Shortcuts</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Y0, Y1, …Y9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q0, Q1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>Q9</t>
+    </r>
+  </si>
+  <si>
+    <t>W0, W1, …W9</t>
+  </si>
 </sst>
 </file>
 
@@ -617,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,6 +843,11 @@
       <sz val="16"/>
       <name val="Lucida Grande"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -777,13 +875,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -802,12 +904,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -826,9 +922,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -857,76 +950,39 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1258,774 +1314,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" ht="17" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" thickBot="1">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" ht="17" thickTop="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" ht="17" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="17" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" customHeight="1">
+      <c r="A38" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" customHeight="1">
+      <c r="A42" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1">
+      <c r="A44" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1">
+      <c r="A48" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="55" spans="1:2" ht="17" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A61" s="18"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" ht="17" customHeight="1">
+      <c r="A63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" customHeight="1">
+      <c r="A64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" customHeight="1">
+      <c r="A65" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" customHeight="1">
+      <c r="A66" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" customHeight="1">
+      <c r="A67" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" customHeight="1">
+      <c r="A68" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1">
+      <c r="A69" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1">
+      <c r="A73" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+    </row>
+    <row r="76" spans="1:5" ht="17" customHeight="1">
+      <c r="A76" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="17" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" ht="17" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" customHeight="1">
+      <c r="A81" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" customHeight="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" ht="17" customHeight="1">
+      <c r="A84" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2" ht="17" customHeight="1">
+      <c r="A85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17" customHeight="1">
+      <c r="A86" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17" customHeight="1">
+      <c r="A87" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="17" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="17" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+    </row>
+    <row r="90" spans="1:2" ht="17" customHeight="1">
+      <c r="A90" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17" customHeight="1">
+      <c r="A91" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17" customHeight="1">
+      <c r="A92" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17" customHeight="1">
+      <c r="A93" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17" customHeight="1">
+      <c r="A94" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17" customHeight="1">
+      <c r="A95" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17" customHeight="1">
+      <c r="A96" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" customHeight="1">
+      <c r="A97" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" customHeight="1">
+      <c r="A98" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:2" ht="17" customHeight="1">
+      <c r="A99" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="17" customHeight="1">
+      <c r="A100" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="B100" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="17" customHeight="1">
+      <c r="A101" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17" customHeight="1">
+      <c r="A102" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+    <row r="103" spans="1:2" ht="17" customHeight="1">
+      <c r="A103" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="33"/>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="17" customHeight="1">
+      <c r="A104" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" customHeight="1">
+      <c r="A105" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" customHeight="1">
+      <c r="A107" s="17"/>
+      <c r="B107" s="15"/>
+    </row>
+    <row r="108" spans="1:2" ht="17" customHeight="1">
+      <c r="A108" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17" customHeight="1">
+      <c r="A110" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="18"/>
-    </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="10"/>
-    </row>
-    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
+      <c r="B110" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1">
+      <c r="A111" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1">
+      <c r="A112" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="23"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="23"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="23"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="23"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="23"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="23"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="23"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2037,5 +2199,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="40" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
   <si>
     <t>Shortcut</t>
   </si>
@@ -30,9 +30,6 @@
     <t xml:space="preserve">Context menu </t>
   </si>
   <si>
-    <t>Select new</t>
-  </si>
-  <si>
     <t>Left drag</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Shift right drag</t>
   </si>
   <si>
-    <t>Middle drag</t>
-  </si>
-  <si>
     <t>Make new object</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Double click object in Sidebar</t>
   </si>
   <si>
-    <t>Pick one peak at position</t>
-  </si>
-  <si>
     <t>Move module</t>
   </si>
   <si>
@@ -115,30 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">Set up NmrResidues </t>
-  </si>
-  <si>
-    <r>
-      <t>Zoom in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t xml:space="preserve">to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>area</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -156,48 +123,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Add</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>/Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t xml:space="preserve"> one to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t xml:space="preserve">/from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>Selection</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ctrl/Cmd+Z</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -372,10 +297,22 @@
     <t>Load Data</t>
   </si>
   <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
     <t>LD</t>
   </si>
   <si>
+    <t>PS</t>
+  </si>
+  <si>
     <t>SA</t>
+  </si>
+  <si>
+    <t>QT</t>
   </si>
   <si>
     <t>ND</t>
@@ -691,34 +628,33 @@
     <t>W0, W1, …W9</t>
   </si>
   <si>
-    <t>Ctrl/Cmd+N</t>
-  </si>
-  <si>
-    <t>Ctrl/Cmd+O</t>
-  </si>
-  <si>
-    <t>Ctrl/Cmd+S</t>
-  </si>
-  <si>
-    <t>Ctrl/Cmd+Q</t>
-  </si>
-  <si>
-    <t>Store Zoom</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>Restore Zoom</t>
-  </si>
-  <si>
-    <t>ZR</t>
-  </si>
-  <si>
-    <t>Cycle through Peak Labelling Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL </t>
+    <t>Select peak at mouse position</t>
+  </si>
+  <si>
+    <r>
+      <t>Add p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>eak to s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>election</t>
+    </r>
+  </si>
+  <si>
+    <t>Insert new peak at mouse position</t>
   </si>
 </sst>
 </file>
@@ -893,9 +829,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -990,14 +928,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1332,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1347,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="30"/>
     </row>
@@ -1357,7 +1297,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5"/>
     </row>
@@ -1370,192 +1310,192 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>86</v>
+      <c r="A9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>84</v>
+      <c r="A10" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
+      <c r="A15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" thickBot="1">
-      <c r="A23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" ht="18">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="28" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" thickBot="1">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="17" thickTop="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" ht="17" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>21</v>
+      <c r="A27" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>127</v>
@@ -1563,26 +1503,26 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1">
@@ -1590,84 +1530,84 @@
         <v>115</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>144</v>
@@ -1675,10 +1615,10 @@
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1">
@@ -1686,73 +1626,73 @@
         <v>149</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="A48" s="18"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="1:2" ht="17" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:2" ht="17" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="29"/>
+      <c r="A50" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="17" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" customHeight="1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1">
-      <c r="A53" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" customHeight="1">
@@ -1765,68 +1705,68 @@
     </row>
     <row r="57" spans="1:2" ht="17" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="A60" s="18"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A61" s="18"/>
+      <c r="A61" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="8"/>
+    <row r="62" spans="1:2" ht="17" customHeight="1">
+      <c r="A62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="64" spans="1:2" ht="17" customHeight="1">
-      <c r="A64" s="10" t="s">
-        <v>160</v>
+      <c r="A64" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" customHeight="1">
@@ -1834,166 +1774,166 @@
         <v>162</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>138</v>
+      <c r="A69" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" customHeight="1">
-      <c r="A70" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1">
+      <c r="A72" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1">
+      <c r="A73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1">
-      <c r="A73" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1">
-      <c r="A74" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="B73" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" ht="17" customHeight="1">
+      <c r="A75" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:5" ht="17" customHeight="1">
-      <c r="A76" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="8"/>
+      <c r="A76" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="17" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:5" ht="17" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" ht="17" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="A82" s="18"/>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" ht="17" customHeight="1">
-      <c r="A83" s="18"/>
+      <c r="A83" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" ht="17" customHeight="1">
-      <c r="A84" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="8"/>
+      <c r="A84" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="85" spans="1:2" ht="17" customHeight="1">
       <c r="A85" s="17" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" customHeight="1">
@@ -2001,7 +1941,7 @@
         <v>164</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" customHeight="1">
@@ -2009,227 +1949,195 @@
         <v>165</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" customHeight="1">
       <c r="A93" s="17" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" customHeight="1">
       <c r="A94" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" customHeight="1">
       <c r="A95" s="17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" customHeight="1">
-      <c r="A97" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="A97" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="15"/>
     </row>
     <row r="98" spans="1:2" ht="17" customHeight="1">
-      <c r="A98" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" s="15"/>
+      <c r="A98" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="99" spans="1:2" ht="17" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" customHeight="1">
-      <c r="A106" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>192</v>
-      </c>
+      <c r="A106" s="17"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" spans="1:2" ht="17" customHeight="1">
-      <c r="A107" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="A107" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="8"/>
     </row>
     <row r="108" spans="1:2" ht="17" customHeight="1">
-      <c r="A108" s="17" t="s">
-        <v>174</v>
+      <c r="A108" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="17" t="s">
-        <v>176</v>
+      <c r="A109" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="111" spans="1:2" ht="17" customHeight="1">
-      <c r="A111" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="A111" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1">
-      <c r="A113" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1">
-      <c r="A114" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+    <row r="112" spans="1:2">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="23"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="23"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:1">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:1">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:1">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:1">
       <c r="A120" s="23"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="23"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="23"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="23"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="40" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
   <si>
     <t>Shortcut</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">Context menu </t>
   </si>
   <si>
+    <t>Select new</t>
+  </si>
+  <si>
     <t>Left drag</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>Shift right drag</t>
   </si>
   <si>
+    <t>Middle drag</t>
+  </si>
+  <si>
     <t>Make new object</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
     <t>Double click object in Sidebar</t>
   </si>
   <si>
+    <t>Pick one peak at position</t>
+  </si>
+  <si>
     <t>Move module</t>
   </si>
   <si>
@@ -106,6 +115,30 @@
   </si>
   <si>
     <t xml:space="preserve">Set up NmrResidues </t>
+  </si>
+  <si>
+    <r>
+      <t>Zoom in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>area</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -123,6 +156,48 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>/Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t xml:space="preserve"> one to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t xml:space="preserve">/from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>Selection</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Ctrl/Cmd+Z</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -297,22 +372,10 @@
     <t>Load Data</t>
   </si>
   <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>LD</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>SA</t>
-  </si>
-  <si>
-    <t>QT</t>
   </si>
   <si>
     <t>ND</t>
@@ -628,33 +691,16 @@
     <t>W0, W1, …W9</t>
   </si>
   <si>
-    <t>Select peak at mouse position</t>
-  </si>
-  <si>
-    <r>
-      <t>Add p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>eak to s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>election</t>
-    </r>
-  </si>
-  <si>
-    <t>Insert new peak at mouse position</t>
+    <t>Ctrl/Cmd+N</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+O</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+S</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+Q</t>
   </si>
 </sst>
 </file>
@@ -829,11 +875,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -928,16 +972,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1272,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1287,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="30"/>
     </row>
@@ -1297,7 +1339,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5"/>
     </row>
@@ -1310,192 +1352,192 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>80</v>
+      <c r="A9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>182</v>
+      <c r="A10" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
+      <c r="A15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>105</v>
+      <c r="A16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>8</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" thickBot="1">
-      <c r="A22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="17" thickTop="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="28" t="s">
+    <row r="21" spans="1:2" ht="17" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" thickBot="1">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" ht="17" thickTop="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" ht="17" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>20</v>
-      </c>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>109</v>
+      <c r="A27" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="B29" s="15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>127</v>
@@ -1503,26 +1545,26 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="15" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="B33" s="15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1">
@@ -1530,84 +1572,84 @@
         <v>115</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>144</v>
@@ -1615,10 +1657,10 @@
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1">
@@ -1626,73 +1668,73 @@
         <v>149</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1">
       <c r="A47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="17" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="29"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" ht="17" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="A50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2" ht="17" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>83</v>
+      <c r="A52" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>68</v>
+      <c r="A53" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" customHeight="1">
@@ -1705,68 +1747,68 @@
     </row>
     <row r="57" spans="1:2" ht="17" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="A61" s="18"/>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1">
-      <c r="A62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>93</v>
-      </c>
+    <row r="62" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A62" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2" ht="17" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" customHeight="1">
-      <c r="A64" s="17" t="s">
-        <v>17</v>
+      <c r="A64" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" customHeight="1">
@@ -1774,166 +1816,166 @@
         <v>162</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" customHeight="1">
       <c r="A68" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" customHeight="1">
+      <c r="A69" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1">
-      <c r="A69" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="17" t="s">
-        <v>31</v>
+    </row>
+    <row r="70" spans="1:5" ht="17" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="17" customHeight="1">
-      <c r="A72" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="A72" s="18"/>
       <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:5" ht="17" customHeight="1">
-      <c r="A73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-    </row>
-    <row r="75" spans="1:5" ht="17" customHeight="1">
-      <c r="A75" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="8"/>
+      <c r="A73" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
     </row>
     <row r="76" spans="1:5" ht="17" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="A76" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:5" ht="17" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="16"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="17" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" ht="17" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B81" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="83" spans="1:2" ht="17" customHeight="1">
-      <c r="A83" s="25" t="s">
-        <v>47</v>
-      </c>
+      <c r="A83" s="18"/>
       <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" ht="17" customHeight="1">
-      <c r="A84" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="A84" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:2" ht="17" customHeight="1">
       <c r="A85" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" customHeight="1">
       <c r="A86" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" customHeight="1">
@@ -1941,7 +1983,7 @@
         <v>164</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" customHeight="1">
@@ -1949,156 +1991,156 @@
         <v>165</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" customHeight="1">
       <c r="A93" s="17" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" customHeight="1">
       <c r="A95" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" customHeight="1">
-      <c r="A97" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="15"/>
+      <c r="A97" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:2" ht="17" customHeight="1">
-      <c r="A98" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A98" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="1:2" ht="17" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" customHeight="1">
       <c r="A101" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" customHeight="1">
       <c r="A104" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B105" s="15" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1">
-      <c r="A106" s="17"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="107" spans="1:2" ht="17" customHeight="1">
-      <c r="A107" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="8"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108" spans="1:2" ht="17" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="B109" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" customHeight="1">
       <c r="A110" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>181</v>
@@ -2106,14 +2148,19 @@
     </row>
     <row r="111" spans="1:2" ht="17" customHeight="1">
       <c r="A111" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="23"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1">
+      <c r="A112" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="23"/>
@@ -2138,6 +2185,9 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="23"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -372,22 +372,10 @@
     <t>Load Data</t>
   </si>
   <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>LD</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>SA</t>
-  </si>
-  <si>
-    <t>QT</t>
   </si>
   <si>
     <t>ND</t>
@@ -701,6 +689,18 @@
   </si>
   <si>
     <t>W0, W1, …W9</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+N</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+O</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+S</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+Q</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1329,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="30"/>
     </row>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5"/>
     </row>
@@ -1448,12 +1448,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1">
@@ -1521,18 +1521,18 @@
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -1540,7 +1540,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -1548,71 +1548,71 @@
         <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1">
@@ -1633,58 +1633,58 @@
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" customHeight="1">
@@ -1702,7 +1702,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" customHeight="1">
@@ -1710,7 +1710,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" customHeight="1">
@@ -1718,7 +1718,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" customHeight="1">
@@ -1726,7 +1726,7 @@
         <v>73</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" customHeight="1">
@@ -1734,23 +1734,23 @@
         <v>79</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" customHeight="1">
@@ -1774,7 +1774,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" customHeight="1">
@@ -1792,12 +1792,12 @@
         <v>16</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
@@ -1808,39 +1808,39 @@
         <v>20</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" customHeight="1">
@@ -1856,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" customHeight="1">
@@ -1874,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1897,19 +1897,19 @@
     </row>
     <row r="78" spans="1:5" ht="17" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" ht="17" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17" customHeight="1">
@@ -1917,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" customHeight="1">
@@ -1930,10 +1930,10 @@
     </row>
     <row r="82" spans="1:2" ht="17" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" customHeight="1">
@@ -1951,7 +1951,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" customHeight="1">
@@ -1975,12 +1975,12 @@
         <v>78</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>24</v>
@@ -1988,18 +1988,18 @@
     </row>
     <row r="90" spans="1:2" ht="17" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" customHeight="1">
@@ -2015,12 +2015,12 @@
         <v>44</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" customHeight="1">
       <c r="A94" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>27</v>
@@ -2028,18 +2028,18 @@
     </row>
     <row r="95" spans="1:2" ht="17" customHeight="1">
       <c r="A95" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" customHeight="1">
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" customHeight="1">
@@ -2069,23 +2069,23 @@
         <v>62</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" customHeight="1">
@@ -2098,26 +2098,26 @@
     </row>
     <row r="104" spans="1:2" ht="17" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" customHeight="1">
@@ -2132,10 +2132,10 @@
     </row>
     <row r="109" spans="1:2" ht="17" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" customHeight="1">
@@ -2143,7 +2143,7 @@
         <v>48</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17" customHeight="1">
@@ -2151,7 +2151,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" customHeight="1">
@@ -2159,7 +2159,7 @@
         <v>48</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:1">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="191">
   <si>
     <t>Shortcut</t>
   </si>
@@ -701,6 +701,18 @@
   </si>
   <si>
     <t>Ctrl/Cmd+Q</t>
+  </si>
+  <si>
+    <t>Store Zoom</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>Restore Zoom</t>
+  </si>
+  <si>
+    <t>ZR</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2098,60 +2110,60 @@
     </row>
     <row r="104" spans="1:2" ht="17" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" customHeight="1">
       <c r="A106" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" customHeight="1">
+      <c r="A107" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1">
-      <c r="A107" s="17"/>
-      <c r="B107" s="15"/>
-    </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1">
-      <c r="A108" s="25" t="s">
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="17"/>
+      <c r="B109" s="15"/>
+    </row>
+    <row r="110" spans="1:2" ht="17" customHeight="1">
+      <c r="A110" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="14" t="s">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1">
+      <c r="A111" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B111" s="15" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1">
-      <c r="A110" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1">
-      <c r="A111" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" customHeight="1">
@@ -2159,35 +2171,51 @@
         <v>48</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1">
+      <c r="A113" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1">
+      <c r="A114" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="23"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="23"/>
-    </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:2">
       <c r="A115" s="23"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2">
       <c r="A121" s="23"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="23"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
   <si>
     <t>Shortcut</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>ZR</t>
+  </si>
+  <si>
+    <t>Cycle through Peak Labelling Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL </t>
   </si>
 </sst>
 </file>
@@ -1326,9 +1332,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -2126,52 +2132,52 @@
     </row>
     <row r="106" spans="1:2" ht="17" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" customHeight="1">
       <c r="A108" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="17"/>
-      <c r="B109" s="15"/>
-    </row>
     <row r="110" spans="1:2" ht="17" customHeight="1">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="17"/>
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1">
+      <c r="A111" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1">
-      <c r="A111" s="14" t="s">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1">
+      <c r="A112" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B112" s="15" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1">
-      <c r="A112" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17" customHeight="1">
@@ -2179,7 +2185,7 @@
         <v>48</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17" customHeight="1">
@@ -2187,11 +2193,16 @@
         <v>48</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="23"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="23"/>
@@ -2216,6 +2227,9 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="19980" windowHeight="27140" tabRatio="500"/>
+    <workbookView xWindow="40280" yWindow="460" windowWidth="19980" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -555,16 +560,10 @@
     </r>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
     <t>Toggle Phasing Pivot</t>
-  </si>
-  <si>
-    <t>Propagate Assignments</t>
   </si>
   <si>
     <t>I1</t>
@@ -701,6 +700,12 @@
   </si>
   <si>
     <t>Ctrl/Cmd+Q</t>
+  </si>
+  <si>
+    <t>Switch Mouse Mode</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -1317,37 +1322,37 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="20" thickBot="1">
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1">
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1">
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1">
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>80</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1">
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1">
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1">
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1">
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1">
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1">
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1">
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1">
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1">
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>67</v>
       </c>
@@ -1443,7 +1448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1">
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1">
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>105</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1">
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>104</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1">
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1">
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1483,21 +1488,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="20" thickBot="1">
+    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1">
+    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -1505,13 +1510,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1">
+    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1">
+    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>110</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1">
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>112</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
@@ -1551,7 +1556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>123</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>125</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1">
+    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>115</v>
       </c>
@@ -1575,7 +1580,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1">
+    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>116</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1">
+    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>118</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1">
+    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>120</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1">
+    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>140</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1">
+    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>138</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1">
+    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1">
+    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>69</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1">
+    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>131</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1">
+    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>141</v>
       </c>
@@ -1647,73 +1652,73 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1">
+    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1">
+    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1">
+    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1">
+    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>88</v>
       </c>
@@ -1721,15 +1726,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1">
+    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>79</v>
       </c>
@@ -1737,23 +1742,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1">
+    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>74</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1">
+    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>75</v>
       </c>
@@ -1769,25 +1774,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1">
+    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1">
+    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1">
+    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>16</v>
       </c>
@@ -1795,15 +1800,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" customHeight="1">
+    <row r="64" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" customHeight="1">
+    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>20</v>
       </c>
@@ -1811,23 +1816,23 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1">
+    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17" customHeight="1">
-      <c r="A67" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" customHeight="1">
+    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>140</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1">
+    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>138</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" customHeight="1">
+    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -1859,17 +1864,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1">
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1">
+    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1">
+    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>28</v>
       </c>
@@ -1877,17 +1882,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
     </row>
-    <row r="76" spans="1:5" ht="17" customHeight="1">
+    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:5" ht="17" customHeight="1">
+    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>30</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" customHeight="1">
+    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>96</v>
       </c>
@@ -1904,7 +1909,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="17" customHeight="1">
+    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>99</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" customHeight="1">
+    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>29</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17" customHeight="1">
+    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1">
+    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>100</v>
       </c>
@@ -1936,17 +1941,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1">
+    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1">
+    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1">
+    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
         <v>77</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1">
+    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1">
+    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1">
+    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
         <v>78</v>
       </c>
@@ -1978,31 +1983,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1">
+    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1">
+    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17" customHeight="1">
-      <c r="A91" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17" customHeight="1">
+    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
         <v>44</v>
       </c>
@@ -2018,31 +2023,31 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17" customHeight="1">
+    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17" customHeight="1">
+    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17" customHeight="1">
-      <c r="A96" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1">
+    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>45</v>
       </c>
@@ -2050,13 +2055,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1">
+    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B98" s="15"/>
     </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1">
+    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>64</v>
       </c>
@@ -2064,7 +2069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1">
+    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>62</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1">
+    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>133</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1">
+    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>135</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1">
+    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>65</v>
       </c>
@@ -2096,97 +2101,97 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1">
+    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1">
-      <c r="A105" s="17" t="s">
+    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1">
-      <c r="A106" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1">
+    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1">
+    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B108" s="8"/>
     </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
+    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="23"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="23"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
   </sheetData>
@@ -2199,10 +2204,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40280" yWindow="460" windowWidth="19980" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="4820" yWindow="1100" windowWidth="20540" windowHeight="25880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
   <si>
     <t>Shortcut</t>
   </si>
@@ -706,6 +701,24 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>Zoom in to Spectrum</t>
+  </si>
+  <si>
+    <t>Zoom out of Spectrum</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>ZO</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Toggle Share Y Axis Across Display</t>
   </si>
 </sst>
 </file>
@@ -1319,40 +1332,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="21" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>80</v>
       </c>
@@ -1368,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="17" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="17" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="17" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>83</v>
       </c>
@@ -1392,7 +1405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="17" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="17" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="17" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="17" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="17" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="17" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>67</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>105</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>104</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1488,21 +1501,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17" thickTop="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -1510,13 +1523,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>110</v>
       </c>
@@ -1532,7 +1545,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>112</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
@@ -1548,7 +1561,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>123</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>125</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>115</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>116</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>118</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>120</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>140</v>
       </c>
@@ -1612,7 +1625,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>138</v>
       </c>
@@ -1620,7 +1633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>69</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>131</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>141</v>
       </c>
@@ -1652,7 +1665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>145</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="17" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>147</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="17" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>148</v>
       </c>
@@ -1676,7 +1689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="17" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>150</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="17" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>185</v>
       </c>
@@ -1692,507 +1705,531 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="49" spans="1:2" ht="17" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" ht="17" customHeight="1">
+      <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="29"/>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="B53" s="29"/>
+    </row>
+    <row r="54" spans="1:2" ht="17" customHeight="1">
+      <c r="A54" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+    <row r="55" spans="1:2" ht="17" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+    <row r="56" spans="1:2" ht="17" customHeight="1">
+      <c r="A56" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="57" spans="1:2" ht="17" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+    <row r="58" spans="1:2" ht="17" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+    <row r="59" spans="1:2" ht="17" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+    <row r="60" spans="1:2" ht="17" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+    <row r="61" spans="1:2" ht="17" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+    <row r="62" spans="1:2" ht="17" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+    <row r="63" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B63" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+    <row r="64" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" ht="17" customHeight="1">
+      <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B66" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+    <row r="67" spans="1:2" ht="17" customHeight="1">
+      <c r="A67" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+    <row r="68" spans="1:2" ht="17" customHeight="1">
+      <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B68" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+    <row r="69" spans="1:2" ht="17" customHeight="1">
+      <c r="A69" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B69" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+    <row r="70" spans="1:2" ht="17" customHeight="1">
+      <c r="A70" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+    <row r="71" spans="1:2" ht="17" customHeight="1">
+      <c r="A71" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+    <row r="72" spans="1:2" ht="17" customHeight="1">
+      <c r="A72" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+    <row r="73" spans="1:2" ht="17" customHeight="1">
+      <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+    <row r="74" spans="1:2" ht="14">
+      <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+    <row r="75" spans="1:2" ht="17" customHeight="1">
+      <c r="A75" s="18"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" ht="17" customHeight="1">
+      <c r="A76" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" ht="17" customHeight="1">
+      <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B77" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-    </row>
-    <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+    </row>
+    <row r="79" spans="1:2" ht="17" customHeight="1">
+      <c r="A79" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" ht="17" customHeight="1">
+      <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B80" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+    <row r="81" spans="1:5" ht="17" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="16"/>
-    </row>
-    <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
+    <row r="83" spans="1:5" ht="17" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
+    <row r="84" spans="1:5" ht="17" customHeight="1">
+      <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
+    <row r="85" spans="1:5" ht="17" customHeight="1">
+      <c r="A85" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
+    <row r="86" spans="1:5" ht="17" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1">
+      <c r="A87" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1">
+      <c r="A88" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+    <row r="89" spans="1:5" ht="17" customHeight="1">
+      <c r="A89" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+    <row r="90" spans="1:5" ht="17" customHeight="1">
+      <c r="A90" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+    <row r="91" spans="1:5" ht="17" customHeight="1">
+      <c r="A91" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B91" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+    <row r="92" spans="1:5" ht="17" customHeight="1">
+      <c r="A92" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B92" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+    <row r="93" spans="1:5" ht="17" customHeight="1">
+      <c r="A93" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
+    <row r="94" spans="1:5" ht="17" customHeight="1">
+      <c r="A94" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B94" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+    <row r="95" spans="1:5" ht="17" customHeight="1">
+      <c r="A95" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B95" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+    <row r="96" spans="1:5" ht="17" customHeight="1">
+      <c r="A96" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+    <row r="97" spans="1:2" ht="17" customHeight="1">
+      <c r="A97" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+    <row r="98" spans="1:2" ht="17" customHeight="1">
+      <c r="A98" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B98" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+    <row r="99" spans="1:2" ht="17" customHeight="1">
+      <c r="A99" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B99" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+    <row r="100" spans="1:2" ht="17" customHeight="1">
+      <c r="A100" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B100" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
+    <row r="101" spans="1:2" ht="17" customHeight="1">
+      <c r="A101" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:2" ht="17" customHeight="1">
+      <c r="A102" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
+    <row r="103" spans="1:2" ht="17" customHeight="1">
+      <c r="A103" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B103" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+    <row r="104" spans="1:2" ht="17" customHeight="1">
+      <c r="A104" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+    <row r="105" spans="1:2" ht="17" customHeight="1">
+      <c r="A105" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+    <row r="106" spans="1:2" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+    <row r="107" spans="1:2" ht="17" customHeight="1">
+      <c r="A107" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B107" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+    <row r="108" spans="1:2" ht="17" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="15"/>
-    </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
+    <row r="110" spans="1:2" ht="17" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1">
+      <c r="A111" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1">
+      <c r="A112" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B112" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
+    <row r="113" spans="1:2" ht="17" customHeight="1">
+      <c r="A113" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="20" t="s">
+    <row r="114" spans="1:2" ht="17" customHeight="1">
+      <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B114" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
+    <row r="115" spans="1:2" ht="17" customHeight="1">
+      <c r="A115" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B115" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="23"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="23"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="23"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="23"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="23"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2204,5 +2241,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="1100" windowWidth="20540" windowHeight="25880" tabRatio="500"/>
+    <workbookView xWindow="43840" yWindow="460" windowWidth="20540" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="191">
   <si>
     <t>Shortcut</t>
   </si>
@@ -336,9 +341,6 @@
     <t>New project</t>
   </si>
   <si>
-    <t>New Blank Display</t>
-  </si>
-  <si>
     <t>Peak Table</t>
   </si>
   <si>
@@ -376,9 +378,6 @@
   </si>
   <si>
     <t>SA</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
   <si>
     <t>LT</t>
@@ -1332,56 +1331,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1">
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1">
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1">
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1">
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -1397,31 +1396,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1">
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1">
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1">
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1">
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1">
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>67</v>
       </c>
@@ -1461,31 +1460,31 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1">
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1">
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1">
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1501,21 +1500,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1">
+    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1">
+    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -1523,13 +1522,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1">
+    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1537,103 +1536,103 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1">
+    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1">
+    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1">
-      <c r="A35" s="17" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1">
+    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1">
+    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>69</v>
       </c>
@@ -1649,153 +1648,153 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1">
+    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1">
-      <c r="A46" s="17" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1">
+    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1">
+    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1">
+    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1">
-      <c r="A56" s="10" t="s">
+      <c r="B56" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>74</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1">
+    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>75</v>
       </c>
@@ -1811,81 +1810,81 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1">
+    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1">
+    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" ht="17" customHeight="1">
+    <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" customHeight="1">
+    <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" customHeight="1">
-      <c r="A70" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="B70" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
@@ -1893,43 +1892,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:2" ht="17" customHeight="1">
+    <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" ht="17" customHeight="1">
+    <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1">
+    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" ht="17" customHeight="1">
+    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
@@ -1937,32 +1936,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1">
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -1970,151 +1969,151 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1">
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1">
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1">
-      <c r="A89" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1">
-      <c r="A90" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="B90" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1">
-      <c r="A93" s="17" t="s">
+      <c r="B93" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="15" t="s">
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
-      <c r="A94" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
-      <c r="A95" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
-      <c r="A96" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1">
-      <c r="A97" s="17" t="s">
+    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1">
-      <c r="A98" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1">
+    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1">
-      <c r="A100" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1">
-      <c r="A101" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="15"/>
-    </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1">
+      <c r="B100" s="15"/>
+    </row>
+    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>133</v>
       </c>
@@ -2122,23 +2121,23 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1">
+    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>170</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1">
+    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>172</v>
       </c>
@@ -2154,82 +2153,74 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="17" t="s">
+    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="15"/>
+    </row>
+    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B111" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1">
-      <c r="A111" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>176</v>
+    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1">
+    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1">
-      <c r="A115" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2241,10 +2232,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43840" yWindow="460" windowWidth="20540" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="15580" yWindow="1240" windowWidth="19500" windowHeight="23300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
   <si>
     <t>Shortcut</t>
   </si>
@@ -301,12 +296,6 @@
     <t>Show/Hide Toolbar</t>
   </si>
   <si>
-    <t>Reset Zoom</t>
-  </si>
-  <si>
-    <t>RZ</t>
-  </si>
-  <si>
     <t>Move single peak</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -718,6 +707,18 @@
   </si>
   <si>
     <t>Toggle Share Y Axis Across Display</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>Store Zoom</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>Restore Zoom</t>
   </si>
 </sst>
 </file>
@@ -892,9 +893,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -989,14 +992,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1331,56 +1336,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="21" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="17" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="17" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -1396,31 +1401,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="17" customHeight="1">
       <c r="A9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="17" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="17" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="17" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -1452,39 +1457,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="17" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1500,35 +1505,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" thickBot="1">
       <c r="A23" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17" thickTop="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18">
       <c r="A25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1536,103 +1541,103 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" customHeight="1">
       <c r="A34" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="17" customHeight="1">
+      <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" ht="17" customHeight="1">
+      <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1640,251 +1645,251 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1">
+      <c r="A44" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:2" ht="17" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:2" ht="17" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1">
+      <c r="A47" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1">
+      <c r="A49" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1">
+      <c r="A50" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="17" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="17" customHeight="1">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="17" customHeight="1">
       <c r="A54" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" customHeight="1">
+      <c r="A56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="B58" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" ht="17" customHeight="1">
       <c r="A59" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" ht="17" customHeight="1">
       <c r="A60" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" ht="17" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="17" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="16.5" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.5" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="17" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="17" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" customHeight="1">
+      <c r="A70" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>159</v>
-      </c>
       <c r="B70" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" customHeight="1">
       <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
@@ -1892,43 +1897,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="14">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" customHeight="1">
       <c r="A75" s="18"/>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="17" customHeight="1">
       <c r="A76" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="17" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="17" customHeight="1">
       <c r="A79" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="17" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
@@ -1936,32 +1941,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" customHeight="1">
       <c r="A81" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -1969,25 +1974,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17" customHeight="1">
       <c r="A87" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17" customHeight="1">
       <c r="A89" s="17" t="s">
         <v>42</v>
       </c>
@@ -2003,39 +2008,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17" customHeight="1">
       <c r="A92" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1">
+      <c r="A93" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>47</v>
       </c>
@@ -2043,53 +2048,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" customHeight="1">
       <c r="A95" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="17" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" customHeight="1">
+      <c r="A98" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="17" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17" customHeight="1">
       <c r="A100" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="17" customHeight="1">
       <c r="A101" s="17" t="s">
         <v>64</v>
       </c>
@@ -2097,97 +2102,97 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="17" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17" customHeight="1">
       <c r="A103" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17" customHeight="1">
+      <c r="A104" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17" customHeight="1">
       <c r="A106" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" customHeight="1">
+      <c r="A107" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+    <row r="109" spans="1:2" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+    <row r="110" spans="1:2" ht="17" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" customHeight="1">
+      <c r="A111" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" ht="17" customHeight="1">
+      <c r="A112" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B112" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="15"/>
-    </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="17" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
@@ -2195,32 +2200,40 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="23"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="17" customHeight="1">
+      <c r="A115" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="23"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2232,5 +2245,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="1240" windowWidth="19500" windowHeight="23300" tabRatio="500"/>
+    <workbookView xWindow="45380" yWindow="460" windowWidth="19500" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -495,13 +500,7 @@
     <t>Move to Next Spectrum (and Hide Current)</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>Move to Previous Spectrum (and Hide Current)</t>
-  </si>
-  <si>
-    <t>MP</t>
   </si>
   <si>
     <t>CP</t>
@@ -719,6 +718,12 @@
   </si>
   <si>
     <t>Restore Zoom</t>
+  </si>
+  <si>
+    <t>Double Tab</t>
+  </si>
+  <si>
+    <t>Double Backspace</t>
   </si>
 </sst>
 </file>
@@ -1338,38 +1343,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1">
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1">
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1">
+    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1">
+    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>77</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1">
+    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1">
+    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1">
+    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>80</v>
       </c>
@@ -1409,7 +1414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1">
+    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1">
+    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1">
+    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
@@ -1433,7 +1438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1">
+    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1">
+    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1">
+    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1">
+    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>65</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1">
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1">
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1">
+    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1">
+    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1">
+    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1505,21 +1510,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1">
+    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1">
+    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -1527,13 +1532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1">
+    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1">
+    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>106</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1">
+    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1">
+    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>111</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1">
+    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1">
+    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1">
+    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
@@ -1621,23 +1626,23 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1">
+    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1">
+    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>67</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1">
+    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
@@ -1661,105 +1666,105 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1">
+    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1">
-      <c r="A46" s="17" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1">
+    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1">
+    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1">
+    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1767,15 +1772,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1">
+    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -1783,23 +1788,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1">
+    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1">
+    </row>
+    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>72</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1">
+    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>73</v>
       </c>
@@ -1815,25 +1820,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1">
+    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1">
+    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" ht="17" customHeight="1">
+    <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
@@ -1841,15 +1846,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17" customHeight="1">
+    <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" customHeight="1">
+    <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
@@ -1857,39 +1862,39 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1">
+    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" customHeight="1">
-      <c r="A70" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" customHeight="1">
+    <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
@@ -1905,17 +1910,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" customHeight="1">
+    <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:2" ht="17" customHeight="1">
+    <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" ht="17" customHeight="1">
+    <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
@@ -1923,17 +1928,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1">
+    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" ht="17" customHeight="1">
+    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>92</v>
       </c>
@@ -1950,7 +1955,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1">
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>95</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1">
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1">
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1">
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>96</v>
       </c>
@@ -1982,17 +1987,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1">
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1">
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
         <v>41</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1">
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1">
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>75</v>
       </c>
@@ -2016,31 +2021,31 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1">
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1">
-      <c r="A93" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
         <v>47</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>44</v>
       </c>
@@ -2056,31 +2061,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1">
+    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1">
-      <c r="A98" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1">
+    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>45</v>
       </c>
@@ -2088,13 +2093,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1">
+    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1">
+    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>64</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1">
+    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>62</v>
       </c>
@@ -2110,129 +2115,129 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1">
+    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1">
-      <c r="A104" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="B104" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1">
-      <c r="A106" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="B106" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1">
-      <c r="A108" s="17" t="s">
+    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1">
-      <c r="A109" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1">
+    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1">
+    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B111" s="8"/>
     </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1">
+    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
     </row>
   </sheetData>
@@ -2245,10 +2250,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45380" yWindow="460" windowWidth="19500" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="213">
   <si>
     <t>Shortcut</t>
   </si>
@@ -521,31 +516,7 @@
     <t>Ctrl/Cmd+A</t>
   </si>
   <si>
-    <r>
-      <t>Analysis V3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>beta2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t xml:space="preserve"> shortcuts</t>
-    </r>
-  </si>
-  <si>
     <t>PV</t>
-  </si>
-  <si>
-    <t>Toggle Phasing Pivot</t>
   </si>
   <si>
     <t>I1</t>
@@ -725,6 +696,98 @@
   <si>
     <t>Double Backspace</t>
   </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>Analysis V3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>beta2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color indexed="8"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t xml:space="preserve"> shortcuts</t>
+    </r>
+  </si>
+  <si>
+    <t>TV, TU, TD</t>
+  </si>
+  <si>
+    <t>PC, PT, TR</t>
+  </si>
+  <si>
+    <t>PC, PV, PT</t>
+  </si>
+  <si>
+    <t>XZ, YZ</t>
+  </si>
+  <si>
+    <t>XY, YZ</t>
+  </si>
+  <si>
+    <t>ZI, ZO, ZR</t>
+  </si>
+  <si>
+    <t>ZI, ZO, ZS</t>
+  </si>
+  <si>
+    <t>ZO, ZS, ZR</t>
+  </si>
+  <si>
+    <t>ZI, ZS, ZR</t>
+  </si>
+  <si>
+    <t>PC, PV, TR</t>
+  </si>
+  <si>
+    <t>PV, PT, TR</t>
+  </si>
+  <si>
+    <t>XY, XZ</t>
+  </si>
+  <si>
+    <t>TH, TU, TD</t>
+  </si>
+  <si>
+    <t>TH, TV, TD</t>
+  </si>
+  <si>
+    <t>TH, TV, TU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH, TA, PC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS, TA, PC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS, CH, PC </t>
+  </si>
+  <si>
+    <t>Set Phasing Pivot to cursor position</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
 </sst>
 </file>
 
@@ -733,7 +796,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -831,13 +894,6 @@
       <name val="Lucida Grande"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -862,13 +918,32 @@
       <name val="Lucida Grande"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Lucida Grande"/>
     </font>
     <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
     </font>
   </fonts>
@@ -898,7 +973,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,8 +984,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -968,16 +1073,13 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -987,26 +1089,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1343,78 +1481,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:3" ht="17" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:3" ht="17" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:3" ht="17" customHeight="1">
+      <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:3" ht="17" customHeight="1">
+      <c r="A9" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
@@ -1422,55 +1564,55 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:3" ht="17" customHeight="1">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" ht="17" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:3" ht="17" customHeight="1">
+      <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:3" ht="17" customHeight="1">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:3" ht="17" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:3" ht="17" customHeight="1">
+      <c r="A16" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1620,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -1486,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -1494,7 +1636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1510,35 +1652,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="20" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="17" thickTop="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1546,103 +1692,139 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1650,23 +1832,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
@@ -1674,97 +1862,115 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:3" ht="17" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="C46" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" customHeight="1">
+      <c r="A47" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" customHeight="1">
+      <c r="A49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" customHeight="1">
+      <c r="A50" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="17" customHeight="1">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="29"/>
-    </row>
-    <row r="54" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="28"/>
+    </row>
+    <row r="54" spans="1:3" ht="17" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1772,15 +1978,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17" customHeight="1">
       <c r="A57" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -1788,23 +1994,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17" customHeight="1">
       <c r="A59" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:3" ht="17" customHeight="1">
       <c r="A60" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3" ht="17" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>72</v>
       </c>
@@ -1812,7 +2018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="17" customHeight="1">
       <c r="A62" s="14" t="s">
         <v>73</v>
       </c>
@@ -1820,41 +2026,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="16.5" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
@@ -1862,47 +2074,59 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="17" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" customHeight="1">
+      <c r="A70" s="17" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
+      <c r="C72" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" customHeight="1">
+      <c r="A73" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
@@ -1910,17 +2134,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17" customHeight="1">
       <c r="A75" s="18"/>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
+    <row r="76" spans="1:3" ht="17" customHeight="1">
+      <c r="A76" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
@@ -1928,17 +2152,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
     </row>
-    <row r="79" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+    <row r="79" spans="1:3" ht="17" customHeight="1">
+      <c r="A79" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +2170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" customHeight="1">
       <c r="A81" s="14" t="s">
         <v>92</v>
       </c>
@@ -1955,7 +2179,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17" customHeight="1">
       <c r="A82" s="14" t="s">
         <v>95</v>
       </c>
@@ -1963,7 +2187,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
@@ -1971,7 +2195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="17" customHeight="1">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" customHeight="1">
       <c r="A85" s="14" t="s">
         <v>96</v>
       </c>
@@ -1987,17 +2211,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
+    <row r="87" spans="1:5" ht="17" customHeight="1">
+      <c r="A87" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>41</v>
       </c>
@@ -2005,7 +2229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17" customHeight="1">
       <c r="A89" s="17" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>75</v>
       </c>
@@ -2021,31 +2245,31 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17" customHeight="1">
       <c r="A92" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1">
+      <c r="A93" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>47</v>
       </c>
@@ -2053,7 +2277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" customHeight="1">
       <c r="A95" s="17" t="s">
         <v>44</v>
       </c>
@@ -2061,31 +2285,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" customHeight="1">
+      <c r="A98" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>45</v>
       </c>
@@ -2093,13 +2317,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17" customHeight="1">
       <c r="A100" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17" customHeight="1">
       <c r="A101" s="17" t="s">
         <v>64</v>
       </c>
@@ -2107,137 +2331,155 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17" customHeight="1">
       <c r="A102" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1">
       <c r="A103" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" customHeight="1">
       <c r="A104" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" customHeight="1">
       <c r="A105" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="B106" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1">
       <c r="A107" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+      <c r="C108" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1">
       <c r="A110" s="17"/>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25" t="s">
+    <row r="111" spans="1:3" ht="17" customHeight="1">
+      <c r="A111" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B111" s="8"/>
     </row>
-    <row r="112" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="23"/>
     </row>
   </sheetData>
@@ -2245,10 +2487,15 @@
     <sortCondition ref="A6:A21"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="39240" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="215">
   <si>
     <t>Shortcut</t>
   </si>
@@ -691,12 +696,6 @@
     <t>Restore Zoom</t>
   </si>
   <si>
-    <t>Double Tab</t>
-  </si>
-  <si>
-    <t>Double Backspace</t>
-  </si>
-  <si>
     <t>Related</t>
   </si>
   <si>
@@ -787,6 +786,18 @@
   </si>
   <si>
     <t>RP</t>
+  </si>
+  <si>
+    <t>TabQ</t>
+  </si>
+  <si>
+    <t>Toggle all Spectra on Current Display</t>
+  </si>
+  <si>
+    <t>TabA</t>
+  </si>
+  <si>
+    <t>TabTab</t>
   </si>
 </sst>
 </file>
@@ -1095,14 +1106,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -1479,13 +1490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
@@ -1494,29 +1505,29 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1">
+        <v>190</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="20" thickBot="1">
+    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickTop="1">
+    <row r="4" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1">
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
+    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>77</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
+    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1">
+    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1">
+    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>80</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1">
+    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
@@ -1564,7 +1575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1">
+    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1">
+    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -1580,7 +1591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1">
+    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1">
+    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>65</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1">
+    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1">
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1">
+    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -1636,7 +1647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1">
+    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1">
+    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1652,22 +1663,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:3" ht="20" thickBot="1">
+    <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1">
+    <row r="24" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -1675,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1">
+    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1692,29 +1703,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1">
+    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1">
+      <c r="C28" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C29" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
@@ -1722,10 +1733,10 @@
         <v>123</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
@@ -1733,10 +1744,10 @@
         <v>124</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -1744,10 +1755,10 @@
         <v>120</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
@@ -1755,54 +1766,54 @@
         <v>122</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1">
+    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1">
+    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1">
+    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1">
+    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
@@ -1813,7 +1824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1">
+    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>132</v>
       </c>
@@ -1824,7 +1835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1">
+    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1832,29 +1843,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1">
+    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1">
+    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1">
+      <c r="C42" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
@@ -1862,18 +1873,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1">
+    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1">
+      <c r="C44" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>139</v>
       </c>
@@ -1881,29 +1892,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1">
+    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1">
+      <c r="C46" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1">
+      <c r="C47" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>177</v>
       </c>
@@ -1911,50 +1922,50 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1">
+    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1">
+      <c r="C49" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1">
+      <c r="C50" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1">
+      <c r="C51" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1">
+    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="28"/>
     </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1">
+    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>74</v>
       </c>
@@ -1962,7 +1973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1">
+    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>84</v>
       </c>
@@ -1970,7 +1981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1">
+    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1978,7 +1989,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1">
+    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>71</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1">
+    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
@@ -1994,7 +2005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1">
+    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>146</v>
       </c>
@@ -2002,7 +2013,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1">
+    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>147</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1">
+    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>72</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1">
+    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>73</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1">
+    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
@@ -2034,39 +2045,39 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1">
+    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1">
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" customHeight="1">
+    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>150</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1">
+    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>20</v>
       </c>
@@ -2074,51 +2085,51 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1">
+    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1">
+    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" customHeight="1">
+    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" customHeight="1">
+    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" customHeight="1">
+    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>36</v>
       </c>
@@ -2134,17 +2145,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1">
+    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="1:3" ht="17" customHeight="1">
+    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1">
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>28</v>
       </c>
@@ -2152,17 +2163,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
     </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1">
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1">
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>30</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>92</v>
       </c>
@@ -2179,7 +2190,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1">
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>95</v>
       </c>
@@ -2187,7 +2198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1">
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1">
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1">
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>96</v>
       </c>
@@ -2211,17 +2222,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1">
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1">
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
         <v>41</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1">
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
         <v>42</v>
       </c>
@@ -2237,7 +2248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1">
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>75</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1">
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
         <v>154</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>155</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1">
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
         <v>156</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
         <v>47</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>44</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>158</v>
       </c>
@@ -2293,7 +2304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1">
+    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>145</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1">
+    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>160</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1">
+    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>45</v>
       </c>
@@ -2317,13 +2328,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1">
+    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1">
+    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>64</v>
       </c>
@@ -2331,156 +2342,167 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1">
+    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1">
+      <c r="C102" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="C103" s="15"/>
+    </row>
+    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1">
+        <v>211</v>
+      </c>
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1">
-      <c r="A106" s="17" t="s">
+      <c r="C106" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B107" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1">
-      <c r="A107" s="17" t="s">
+      <c r="C107" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1">
-      <c r="A108" s="17" t="s">
+      <c r="C108" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C108" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1">
-      <c r="A109" s="17" t="s">
+      <c r="C109" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1">
-      <c r="A111" s="24" t="s">
+      <c r="C110" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+      <c r="B111" s="15"/>
+    </row>
+    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1">
-      <c r="A112" s="14" t="s">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1">
-      <c r="A113" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1">
+    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="23"/>
-    </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2492,10 +2514,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39240" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
   <si>
     <t>Shortcut</t>
   </si>
@@ -798,6 +793,18 @@
   </si>
   <si>
     <t>TabTab</t>
+  </si>
+  <si>
+    <t>Cycle Peak Labelling</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Cycle Peak Symbols</t>
   </si>
 </sst>
 </file>
@@ -984,9 +991,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1116,7 +1127,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1136,6 +1147,8 @@
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1156,6 +1169,8 @@
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1490,13 +1505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
@@ -1505,29 +1520,29 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="21" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>77</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>80</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>65</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +1646,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -1639,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1663,22 +1678,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17" thickTop="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -1689,13 +1704,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>106</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="17" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
@@ -1725,7 +1740,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1762,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>119</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>121</v>
       </c>
@@ -1769,7 +1784,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="17" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>111</v>
       </c>
@@ -1780,7 +1795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>112</v>
       </c>
@@ -1791,7 +1806,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>114</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="17" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>116</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="17" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
@@ -1824,7 +1839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>132</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>57</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>67</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="17" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
@@ -1873,7 +1888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>209</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>139</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="17" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>140</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="17" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>142</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>177</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>179</v>
       </c>
@@ -1933,7 +1948,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>180</v>
       </c>
@@ -1944,7 +1959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>184</v>
       </c>
@@ -1955,554 +1970,576 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="52" spans="1:3" ht="17" customHeight="1">
+      <c r="A52" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" customHeight="1">
+      <c r="A53" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" ht="17" customHeight="1">
+      <c r="A55" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="B55" s="28"/>
+    </row>
+    <row r="56" spans="1:3" ht="17" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+    <row r="57" spans="1:3" ht="17" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+    <row r="58" spans="1:3" ht="17" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+    <row r="59" spans="1:3" ht="17" customHeight="1">
+      <c r="A59" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+    <row r="60" spans="1:3" ht="17" customHeight="1">
+      <c r="A60" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+    <row r="61" spans="1:3" ht="17" customHeight="1">
+      <c r="A61" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+    <row r="62" spans="1:3" ht="17" customHeight="1">
+      <c r="A62" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+    <row r="63" spans="1:3" ht="17" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B63" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+    <row r="64" spans="1:3" ht="17" customHeight="1">
+      <c r="A64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
+    <row r="66" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A67" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" ht="17" customHeight="1">
+      <c r="A68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B68" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C68" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
+    <row r="69" spans="1:3" ht="17" customHeight="1">
+      <c r="A69" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C69" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+    <row r="70" spans="1:3" ht="17" customHeight="1">
+      <c r="A70" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+    <row r="71" spans="1:3" ht="17" customHeight="1">
+      <c r="A71" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C71" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+    <row r="72" spans="1:3" ht="17" customHeight="1">
+      <c r="A72" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C72" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+    <row r="73" spans="1:3" ht="17" customHeight="1">
+      <c r="A73" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C73" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+    <row r="74" spans="1:3" ht="17" customHeight="1">
+      <c r="A74" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C74" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+    <row r="75" spans="1:3" ht="17" customHeight="1">
+      <c r="A75" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B75" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+    <row r="76" spans="1:3" ht="14">
+      <c r="A76" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B76" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+    <row r="77" spans="1:3" ht="17" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" ht="17" customHeight="1">
+      <c r="A78" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" ht="17" customHeight="1">
+      <c r="A79" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B79" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-    </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1">
+      <c r="A81" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1">
+      <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
+    <row r="83" spans="1:5" ht="17" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1">
+      <c r="A84" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+    <row r="85" spans="1:5" ht="17" customHeight="1">
+      <c r="A85" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+    <row r="86" spans="1:5" ht="17" customHeight="1">
+      <c r="A86" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+    <row r="87" spans="1:5" ht="17" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B87" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+    <row r="88" spans="1:5" ht="17" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1">
+      <c r="A89" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1">
+      <c r="A90" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+    <row r="91" spans="1:5" ht="17" customHeight="1">
+      <c r="A91" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B91" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+    <row r="92" spans="1:5" ht="17" customHeight="1">
+      <c r="A92" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B92" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
+    <row r="93" spans="1:5" ht="17" customHeight="1">
+      <c r="A93" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+    <row r="94" spans="1:5" ht="17" customHeight="1">
+      <c r="A94" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B94" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+    <row r="95" spans="1:5" ht="17" customHeight="1">
+      <c r="A95" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B95" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+    <row r="96" spans="1:5" ht="17" customHeight="1">
+      <c r="A96" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+    <row r="97" spans="1:3" ht="17" customHeight="1">
+      <c r="A97" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+    <row r="98" spans="1:3" ht="17" customHeight="1">
+      <c r="A98" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B98" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+    <row r="99" spans="1:3" ht="17" customHeight="1">
+      <c r="A99" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B99" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+    <row r="100" spans="1:3" ht="17" customHeight="1">
+      <c r="A100" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B100" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+    <row r="101" spans="1:3" ht="17" customHeight="1">
+      <c r="A101" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B101" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
+    <row r="102" spans="1:3" ht="17" customHeight="1">
+      <c r="A102" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="15"/>
-    </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1">
+      <c r="A103" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B103" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+    <row r="104" spans="1:3" ht="17" customHeight="1">
+      <c r="A104" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C104" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+    <row r="105" spans="1:3" ht="17" customHeight="1">
+      <c r="A105" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="15"/>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="15"/>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1">
+      <c r="A107" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B107" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="15"/>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1">
+      <c r="A108" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C108" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+    <row r="109" spans="1:3" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C109" s="29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+    <row r="110" spans="1:3" ht="17" customHeight="1">
+      <c r="A110" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C110" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
+    <row r="111" spans="1:3" ht="17" customHeight="1">
+      <c r="A111" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B111" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C111" s="29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+    <row r="112" spans="1:3" ht="17" customHeight="1">
+      <c r="A112" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B112" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C112" s="29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="24" t="s">
+    <row r="113" spans="1:2" ht="17" customHeight="1">
+      <c r="A113" s="17"/>
+      <c r="B113" s="15"/>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1">
+      <c r="A114" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="8"/>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1">
+      <c r="A115" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B115" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="17" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B116" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17" customHeight="1">
+      <c r="A117" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17" customHeight="1">
+      <c r="A118" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="23"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="23"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="23"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="23"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="23"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2514,5 +2551,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="38380" yWindow="4280" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="217">
   <si>
     <t>Shortcut</t>
   </si>
@@ -233,9 +238,6 @@
     <t>NT</t>
   </si>
   <si>
-    <t>Atom Selector</t>
-  </si>
-  <si>
     <t>Python Console</t>
   </si>
   <si>
@@ -372,9 +374,6 @@
     <t>LT</t>
   </si>
   <si>
-    <t>PY</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
@@ -540,9 +539,6 @@
     <t>TR</t>
   </si>
   <si>
-    <t>Show Sequence</t>
-  </si>
-  <si>
     <t>Import Nef File</t>
   </si>
   <si>
@@ -580,9 +576,6 @@
   </si>
   <si>
     <t>Chemical Shift Mapping</t>
-  </si>
-  <si>
-    <t>SQ</t>
   </si>
   <si>
     <t>Notes Table</t>
@@ -665,12 +658,6 @@
   </si>
   <si>
     <t>Zoom out of Spectrum</t>
-  </si>
-  <si>
-    <t>ZI</t>
-  </si>
-  <si>
-    <t>ZO</t>
   </si>
   <si>
     <t>TA</t>
@@ -805,6 +792,18 @@
   </si>
   <si>
     <t>Cycle Peak Symbols</t>
+  </si>
+  <si>
+    <t>ZI or +</t>
+  </si>
+  <si>
+    <t>ZO or -</t>
+  </si>
+  <si>
+    <t>Atom Assigner</t>
+  </si>
+  <si>
+    <t>Space-Space</t>
   </si>
 </sst>
 </file>
@@ -1505,13 +1504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
@@ -1520,45 +1519,45 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
+    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickTop="1">
+    <row r="4" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1">
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
+    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1">
+    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
@@ -1574,31 +1573,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1">
+    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -1606,63 +1605,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1">
+    </row>
+    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1">
+    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1">
+    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1678,39 +1677,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:3" ht="21" thickBot="1">
+    <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1">
+    <row r="24" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1">
+    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1718,455 +1717,455 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1">
+    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="C29" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="C34" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="15" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="B44" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1">
-      <c r="A43" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1">
-      <c r="A44" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1">
-      <c r="A46" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1">
-      <c r="A47" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1">
-      <c r="A52" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>216</v>
-      </c>
       <c r="C52" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1">
+    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="28"/>
     </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1">
+    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1">
-      <c r="A58" s="10" t="s">
+      <c r="B58" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="15" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1">
-      <c r="A59" s="14" t="s">
+    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1">
+    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1">
+    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1">
+    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1">
+    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17" customHeight="1">
-      <c r="A74" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1">
+    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
         <v>25</v>
       </c>
@@ -2174,43 +2173,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1">
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1">
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1">
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
@@ -2218,32 +2217,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1">
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1">
+    </row>
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>37</v>
       </c>
@@ -2251,25 +2250,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1">
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1">
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>41</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1">
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
         <v>42</v>
       </c>
@@ -2285,261 +2284,253 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
-      <c r="A95" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
-      <c r="A96" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1">
-      <c r="A97" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1">
-      <c r="A98" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1">
+    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1">
-      <c r="A100" s="17" t="s">
+      <c r="C109" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1">
-      <c r="A101" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1">
-      <c r="A102" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1">
-      <c r="A103" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1">
-      <c r="A104" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1">
-      <c r="A105" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="15"/>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1">
-      <c r="A106" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="15"/>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1">
-      <c r="A107" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="15"/>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1">
-      <c r="A108" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C108" s="29" t="s">
+      <c r="C110" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1">
-      <c r="A109" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1">
-      <c r="A110" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1">
-      <c r="A111" s="17" t="s">
+    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="15"/>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B114" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C111" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1">
-      <c r="A112" s="17" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1">
-      <c r="A113" s="17"/>
-      <c r="B113" s="15"/>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1">
-      <c r="A114" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1">
-      <c r="A115" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="17" customHeight="1">
-      <c r="A116" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="17" customHeight="1">
-      <c r="A117" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="17" customHeight="1">
-      <c r="A118" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="23"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">
@@ -2551,10 +2542,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luca/AnalysisV3/doc/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F17B4F-03D5-2A45-98C3-1B8DE106E349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="4280" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="5340" yWindow="1520" windowWidth="25600" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
   <si>
     <t>Shortcut</t>
   </si>
@@ -203,10 +204,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl/Cmd+Z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ctrl/Cmd+Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -480,9 +477,6 @@
   </si>
   <si>
     <t>PC</t>
-  </si>
-  <si>
-    <t>PR</t>
   </si>
   <si>
     <t xml:space="preserve">Snap to Extremum Current Selected Peaks </t>
@@ -681,35 +675,6 @@
     <t>Related</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>Analysis V3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>beta2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color indexed="8"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t xml:space="preserve"> shortcuts</t>
-    </r>
-  </si>
-  <si>
     <t>TV, TU, TD</t>
   </si>
   <si>
@@ -804,16 +769,31 @@
   </si>
   <si>
     <t>Space-Space</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+Z</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+P</t>
+  </si>
+  <si>
+    <t>Analysis V3 shortcuts</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>Ctrl/Cmd+,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -947,18 +927,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
@@ -1116,13 +1084,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1177,6 +1145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1503,11 +1474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,11 +1491,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1532,7 +1503,7 @@
     </row>
     <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1546,12 +1517,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1575,18 +1546,18 @@
     </row>
     <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1594,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1626,15 +1597,15 @@
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1642,12 +1613,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1655,10 +1626,10 @@
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1683,7 +1654,7 @@
     </row>
     <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1694,18 +1665,18 @@
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="8"/>
     </row>
@@ -1719,276 +1690,276 @@
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="C28" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="C29" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="C35" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="C36" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="C37" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="C41" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="C47" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,155 +1974,152 @@
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="8"/>
+      <c r="B66" s="15" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>20</v>
+      <c r="A70" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>116</v>
+        <v>19</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,237 +2130,239 @@
         <v>129</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B76" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="8"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-    </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E84" s="16"/>
     </row>
     <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
-        <v>51</v>
-      </c>
+      <c r="A89" s="18"/>
       <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A90" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="15"/>
+      <c r="A101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A102" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>205</v>
@@ -2401,41 +2371,39 @@
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C106" s="15"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>190</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C109" s="29" t="s">
         <v>188</v>
@@ -2443,70 +2411,78 @@
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="15"/>
+    </row>
+    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B115" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="15"/>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="23"/>
+    <row r="118" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
@@ -2531,6 +2507,9 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="23"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F17B4F-03D5-2A45-98C3-1B8DE106E349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87591D2F-12A4-0840-B11E-FDB4061F56D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1520" windowWidth="25600" windowHeight="15520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1520" windowWidth="25720" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
   <si>
     <t>Shortcut</t>
   </si>
@@ -368,9 +368,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
@@ -578,19 +575,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Flip X-Y Axis</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
-    <t>Flip X-Z Axis</t>
-  </si>
-  <si>
     <t>XZ</t>
-  </si>
-  <si>
-    <t>Flip Y-Z Axis</t>
   </si>
   <si>
     <t>YZ</t>
@@ -654,12 +642,6 @@
     <t>Zoom out of Spectrum</t>
   </si>
   <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>Toggle Share Y Axis Across Display</t>
-  </si>
-  <si>
     <t>ZR</t>
   </si>
   <si>
@@ -784,6 +766,30 @@
   </si>
   <si>
     <t>Ctrl/Cmd+,</t>
+  </si>
+  <si>
+    <t>Toggle Double Crosshairs</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH </t>
+  </si>
+  <si>
+    <t>Toggle Share Last Axis Across Display</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Copy with X-Z Axes Flipped</t>
+  </si>
+  <si>
+    <t>Copy with X-Y Axes Flipped</t>
+  </si>
+  <si>
+    <t>Copy with Y-Z Axes Flipped</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1093,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1475,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,11 +1497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1613,12 +1619,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1626,10 +1632,10 @@
     </row>
     <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1671,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1690,829 +1696,840 @@
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="C28" s="29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="C29" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>182</v>
+        <v>214</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>110</v>
+      <c r="C34" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="C39" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>54</v>
+        <v>126</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>172</v>
+        <v>139</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="28"/>
-    </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B56" s="28"/>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="B58" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="8"/>
+      <c r="B67" s="15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="29" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>20</v>
+      <c r="A71" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="C75" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B77" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="8"/>
+      <c r="B78" s="15" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
+      <c r="B81" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E85" s="16"/>
     </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="B102" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B103" s="15"/>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C106" s="15"/>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="29" t="s">
-        <v>187</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C108" s="15"/>
     </row>
     <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="15"/>
-    </row>
-    <row r="114" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="15"/>
+    </row>
+    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="8"/>
-    </row>
-    <row r="115" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
-        <v>46</v>
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="23"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="23"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="23"/>
+    </row>
   </sheetData>
-  <sortState ref="A6:B21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">
     <sortCondition ref="A6:A21"/>
   </sortState>
   <mergeCells count="1">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87591D2F-12A4-0840-B11E-FDB4061F56D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD05652-0E7D-4347-929D-174662FB3830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1520" windowWidth="25720" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="1100" windowWidth="25720" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$122</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="226">
   <si>
     <t>Shortcut</t>
   </si>
@@ -485,9 +488,6 @@
     <t>Move to Next Spectrum (and Hide Current)</t>
   </si>
   <si>
-    <t>Move to Previous Spectrum (and Hide Current)</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -672,18 +672,6 @@
     <t>XY, YZ</t>
   </si>
   <si>
-    <t>ZI, ZO, ZR</t>
-  </si>
-  <si>
-    <t>ZI, ZO, ZS</t>
-  </si>
-  <si>
-    <t>ZO, ZS, ZR</t>
-  </si>
-  <si>
-    <t>ZI, ZS, ZR</t>
-  </si>
-  <si>
     <t>PC, PV, TR</t>
   </si>
   <si>
@@ -790,6 +778,36 @@
   </si>
   <si>
     <t>Copy with Y-Z Axes Flipped</t>
+  </si>
+  <si>
+    <t>Show/Hide Spectrum Toolbar</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Zoom to Full Spectrum</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>ZO, ZS, ZR, ZA</t>
+  </si>
+  <si>
+    <t>ZI, ZS, ZR, ZA</t>
+  </si>
+  <si>
+    <t>ZI, ZO, ZR, ZA</t>
+  </si>
+  <si>
+    <t>ZI, ZO, ZS, ZA</t>
+  </si>
+  <si>
+    <t>Move to Previous Spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (and Hide Current)</t>
   </si>
 </sst>
 </file>
@@ -1481,24 +1499,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="47" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1677,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1702,7 +1720,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,18 +1731,18 @@
         <v>105</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,7 +1753,7 @@
         <v>119</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,7 +1764,7 @@
         <v>120</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1775,7 @@
         <v>116</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,7 +1786,7 @@
         <v>118</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,24 +1835,24 @@
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1864,651 +1882,674 @@
         <v>123</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="C47" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="28"/>
-    </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B57" s="28"/>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B66" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="8"/>
+      <c r="B68" s="15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="29" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="C76" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B78" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="8"/>
+      <c r="B79" s="15" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-    </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E86" s="16"/>
     </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="8"/>
-    </row>
     <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
+      <c r="B103" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>186</v>
+        <v>59</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C108" s="15"/>
     </row>
     <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>181</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C109" s="15"/>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>182</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>179</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C111" s="15"/>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="15"/>
+    </row>
+    <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C113" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="15"/>
-    </row>
-    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
+      <c r="B119" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="15" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="23"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="23"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="23"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
@@ -2527,6 +2568,15 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="23"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD05652-0E7D-4347-929D-174662FB3830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891349C8-8AF7-1343-8BD9-9E87A54C9598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="1100" windowWidth="25720" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$123</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="228">
   <si>
     <t>Shortcut</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t xml:space="preserve">      (and Hide Current)</t>
+  </si>
+  <si>
+    <t>Estimate Noise</t>
+  </si>
+  <si>
+    <t>EN</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,29 +2516,30 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="29"/>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="17"/>
+      <c r="B118" s="15"/>
+    </row>
+    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B120" s="15" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,7 +2547,7 @@
         <v>46</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,11 +2555,16 @@
         <v>46</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
@@ -2577,6 +2589,9 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD05652-0E7D-4347-929D-174662FB3830}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1100" windowWidth="25720" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$122</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$126</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
   <si>
     <t>Shortcut</t>
   </si>
@@ -338,9 +332,6 @@
     <t>Save as</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
     <t>Left click</t>
   </si>
   <si>
@@ -792,12 +783,6 @@
     <t>ZA</t>
   </si>
   <si>
-    <t>ZO, ZS, ZR, ZA</t>
-  </si>
-  <si>
-    <t>ZI, ZS, ZR, ZA</t>
-  </si>
-  <si>
     <t>ZI, ZO, ZR, ZA</t>
   </si>
   <si>
@@ -808,12 +793,54 @@
   </si>
   <si>
     <t xml:space="preserve">      (and Hide Current)</t>
+  </si>
+  <si>
+    <t>Pan / move spectrum around</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>ZO, ZA</t>
+  </si>
+  <si>
+    <t>Store Zoom setting</t>
+  </si>
+  <si>
+    <t>ZR, ZP, ZN, ZA</t>
+  </si>
+  <si>
+    <t>ZS, ZP, ZN, ZA</t>
+  </si>
+  <si>
+    <t>ZP, ZS, ZR, ZA</t>
+  </si>
+  <si>
+    <t>ZN, ZS, ZR, ZA</t>
+  </si>
+  <si>
+    <t>ZI, ZA</t>
+  </si>
+  <si>
+    <t>ZI, ZO</t>
+  </si>
+  <si>
+    <t>Go to next Zoom level</t>
+  </si>
+  <si>
+    <t>Go to previous Zoom level</t>
+  </si>
+  <si>
+    <t>Restore stored Zoom setting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -982,9 +1009,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1118,7 +1147,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1140,6 +1169,7 @@
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1162,6 +1192,7 @@
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1498,14 +1529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
@@ -1514,45 +1545,45 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="21" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" thickTop="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
@@ -1568,31 +1599,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17" customHeight="1">
       <c r="A9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" ht="17" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -1600,7 +1631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
@@ -1632,31 +1663,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1672,22 +1703,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="21" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17" thickTop="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1695,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="17" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1712,150 +1743,150 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" customHeight="1">
       <c r="A28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="B29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17" customHeight="1">
       <c r="A30" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="15" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="B34" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17" customHeight="1">
       <c r="A35" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" customHeight="1">
+      <c r="A36" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="B36" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" customHeight="1">
+      <c r="A37" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" customHeight="1">
+      <c r="A38" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="C38" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" customHeight="1">
+      <c r="A40" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="B40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" ht="17" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>55</v>
       </c>
@@ -1863,7 +1894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>65</v>
       </c>
@@ -1871,715 +1902,759 @@
         <v>66</v>
       </c>
       <c r="C42" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" customHeight="1">
+      <c r="A44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" customHeight="1">
+      <c r="A48" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" customHeight="1">
+      <c r="A52" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" customHeight="1">
+      <c r="A53" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" customHeight="1">
+      <c r="A54" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" customHeight="1">
+      <c r="A55" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" customHeight="1">
+      <c r="A56" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" customHeight="1">
+      <c r="A57" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" customHeight="1">
+      <c r="A59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="17" customHeight="1">
+      <c r="A61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="28"/>
+    </row>
+    <row r="62" spans="1:3" ht="17" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" customHeight="1">
+      <c r="A64" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" customHeight="1">
+      <c r="A65" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" customHeight="1">
+      <c r="A70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A74" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" ht="17" customHeight="1">
+      <c r="A75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" customHeight="1">
+      <c r="A76" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" customHeight="1">
+      <c r="A77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" customHeight="1">
+      <c r="A78" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" customHeight="1">
+      <c r="A79" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14">
+      <c r="A83" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" ht="17" customHeight="1">
+      <c r="A85" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1">
+      <c r="A87" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1">
+      <c r="A89" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1">
+      <c r="A90" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:5" ht="17" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" customHeight="1">
+      <c r="A93" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17" customHeight="1">
+      <c r="A94" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" ht="17" customHeight="1">
+      <c r="A96" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" ht="17" customHeight="1">
+      <c r="A97" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" customHeight="1">
+      <c r="A98" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" customHeight="1">
+      <c r="A99" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" customHeight="1">
+      <c r="A100" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" customHeight="1">
+      <c r="A101" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" customHeight="1">
+      <c r="A102" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" customHeight="1">
+      <c r="A103" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" customHeight="1">
+      <c r="A104" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" customHeight="1">
+      <c r="A105" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" customHeight="1">
+      <c r="A106" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" customHeight="1">
+      <c r="A107" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1">
+      <c r="A108" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:3" ht="17" customHeight="1">
+      <c r="A109" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1">
+      <c r="A110" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" customHeight="1">
+      <c r="A111" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" customHeight="1">
+      <c r="A112" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="B112" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="15"/>
+    </row>
+    <row r="113" spans="1:3" ht="17" customHeight="1">
+      <c r="A113" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="29" t="s">
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" spans="1:3" ht="17" customHeight="1">
+      <c r="A114" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" spans="1:3" ht="17" customHeight="1">
+      <c r="A115" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" spans="1:3" ht="17" customHeight="1">
+      <c r="A116" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" customHeight="1">
+      <c r="A117" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" customHeight="1">
+      <c r="A118" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" s="15" t="s">
+    <row r="119" spans="1:3" ht="17" customHeight="1">
+      <c r="A119" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="28"/>
-    </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-    </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="15"/>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="29" t="s">
+      <c r="B119" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" customHeight="1">
+      <c r="A120" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="15"/>
-    </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" s="15"/>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B116" s="15" t="s">
+    <row r="121" spans="1:3" ht="17" customHeight="1">
+      <c r="A121" s="17"/>
+      <c r="B121" s="15"/>
+    </row>
+    <row r="122" spans="1:3" ht="17" customHeight="1">
+      <c r="A122" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="1:3" ht="17" customHeight="1">
+      <c r="A123" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="15"/>
-    </row>
-    <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+      <c r="B123" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B119" s="15" t="s">
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1">
+      <c r="A124" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" customHeight="1">
+      <c r="A125" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" customHeight="1">
+      <c r="A126" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="23"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="23"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="23"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="23"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="23"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="23"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="23"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="23"/>
     </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="23"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="23"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="23"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="23"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">
+  <sortState ref="A6:B21">
     <sortCondition ref="A6:A21"/>
   </sortState>
   <mergeCells count="1">
@@ -2588,5 +2663,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.57000000000000006" right="0.25" top="0.35629921259842523" bottom="0.15944881889763785" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E657E-AAF3-7E4D-BE53-03A12043094B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$127</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="239">
   <si>
     <t>Shortcut</t>
   </si>
@@ -836,11 +842,17 @@
   <si>
     <t>Restore stored Zoom setting</t>
   </si>
+  <si>
+    <t>Estimate Noise</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1529,14 +1541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
@@ -1545,29 +1557,29 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="21" thickBot="1">
+    <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickTop="1">
+    <row r="4" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1">
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1">
+    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>223</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1">
+    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1">
+    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1">
+    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>77</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1">
+    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>78</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1">
+    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1">
+    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1">
+    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1">
+    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1">
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" customHeight="1">
+    <row r="17" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" customHeight="1">
+    <row r="18" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1">
+    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>95</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" customHeight="1">
+    <row r="20" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" customHeight="1">
+    <row r="21" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
@@ -1703,22 +1715,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:3" ht="21" thickBot="1">
+    <row r="23" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="17" thickTop="1">
+    <row r="24" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1729,13 +1741,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="17" customHeight="1">
+    <row r="27" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" customHeight="1">
+    <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -1754,7 +1766,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" customHeight="1">
+    <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>103</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" customHeight="1">
+    <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>207</v>
       </c>
@@ -1776,7 +1788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>114</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>116</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1">
+    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>106</v>
       </c>
@@ -1831,7 +1843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17" customHeight="1">
+    <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>107</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" customHeight="1">
+    <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>109</v>
       </c>
@@ -1853,7 +1865,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1">
+    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>111</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" customHeight="1">
+    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>127</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" customHeight="1">
+    <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>125</v>
       </c>
@@ -1886,7 +1898,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" customHeight="1">
+    <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" customHeight="1">
+    <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>65</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" customHeight="1">
+    <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>121</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" customHeight="1">
+    <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>128</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" customHeight="1">
+    <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>188</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" customHeight="1">
+    <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>132</v>
       </c>
@@ -1943,7 +1955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" customHeight="1">
+    <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>133</v>
       </c>
@@ -1954,7 +1966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" customHeight="1">
+    <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>135</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" customHeight="1">
+    <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>165</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" customHeight="1">
+    <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>167</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" customHeight="1">
+    <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>168</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" customHeight="1">
+    <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>217</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" customHeight="1">
+    <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>227</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17" customHeight="1">
+    <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
         <v>236</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" customHeight="1">
+    <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>235</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" customHeight="1">
+    <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>234</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" customHeight="1">
+    <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>210</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" customHeight="1">
+    <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>194</v>
       </c>
@@ -2072,7 +2084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" customHeight="1">
+    <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
         <v>197</v>
       </c>
@@ -2083,17 +2095,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1">
+    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:3" ht="17" customHeight="1">
+    <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B61" s="28"/>
     </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1">
+    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>72</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1">
+    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>81</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1">
+    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" customHeight="1">
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>69</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1">
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>74</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" customHeight="1">
+    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>138</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1">
+    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>139</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1">
+    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>70</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1">
+    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>71</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1">
+    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>205</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1">
+    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>17</v>
       </c>
@@ -2181,17 +2193,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1">
+    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1">
+    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1">
+    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17" customHeight="1">
+    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>142</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1">
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1">
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
         <v>144</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1">
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
         <v>145</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1">
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
         <v>127</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
         <v>125</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1">
+    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>35</v>
       </c>
@@ -2281,17 +2293,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1">
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1">
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1">
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>91</v>
       </c>
@@ -2299,7 +2311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
         <v>28</v>
       </c>
@@ -2307,17 +2319,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="23"/>
       <c r="B88" s="23"/>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1">
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1">
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1">
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>87</v>
       </c>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1">
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>90</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1">
+    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>29</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1">
+    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>36</v>
       </c>
@@ -2358,17 +2370,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1">
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1">
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B96" s="8"/>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1">
+    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1">
+    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>41</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1">
+    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>73</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1">
+    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>146</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1">
+    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>147</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1">
+    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>148</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1">
+    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>45</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1">
+    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>200</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1">
+    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>150</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1">
+    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>151</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1">
+    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>43</v>
       </c>
@@ -2456,13 +2468,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1">
+    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1">
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>62</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1">
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>215</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1">
+    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>60</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1">
+    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>123</v>
       </c>
@@ -2504,7 +2516,7 @@
       </c>
       <c r="C112" s="15"/>
     </row>
-    <row r="113" spans="1:3" ht="17" customHeight="1">
+    <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
         <v>221</v>
       </c>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="C113" s="15"/>
     </row>
-    <row r="114" spans="1:3" ht="17" customHeight="1">
+    <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
     </row>
-    <row r="115" spans="1:3" ht="17" customHeight="1">
+    <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
         <v>191</v>
       </c>
@@ -2529,7 +2541,7 @@
       </c>
       <c r="C115" s="15"/>
     </row>
-    <row r="116" spans="1:3" ht="17" customHeight="1">
+    <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
         <v>170</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="17" customHeight="1">
+    <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
         <v>172</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="17" customHeight="1">
+    <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
         <v>213</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="17" customHeight="1">
+    <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>212</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17" customHeight="1">
+    <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>214</v>
       </c>
@@ -2584,77 +2596,86 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17" customHeight="1">
-      <c r="A121" s="17"/>
-      <c r="B121" s="15"/>
-    </row>
-    <row r="122" spans="1:3" ht="17" customHeight="1">
-      <c r="A122" s="24" t="s">
+    <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="29"/>
+    </row>
+    <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="15"/>
+    </row>
+    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="17" customHeight="1">
-      <c r="A123" s="14" t="s">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B124" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="17" customHeight="1">
-      <c r="A124" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" customHeight="1">
+    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="23"/>
-    </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="23"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="23"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="23"/>
     </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="23"/>
+    </row>
   </sheetData>
-  <sortState ref="A6:B21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">
     <sortCondition ref="A6:A21"/>
   </sortState>
   <mergeCells count="1">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E657E-AAF3-7E4D-BE53-03A12043094B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AD209-EC5F-7146-8E86-BAB3A83EDDD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
   <si>
     <t>Shortcut</t>
   </si>
@@ -657,12 +657,6 @@
     <t>TV, TU, TD</t>
   </si>
   <si>
-    <t>PC, PT, TR</t>
-  </si>
-  <si>
-    <t>PC, PV, PT</t>
-  </si>
-  <si>
     <t>XZ, YZ</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>PC, PV, TR</t>
   </si>
   <si>
-    <t>PV, PT, TR</t>
-  </si>
-  <si>
     <t>XY, XZ</t>
   </si>
   <si>
@@ -705,9 +696,6 @@
     <t>TabQ</t>
   </si>
   <si>
-    <t>Toggle all Spectra on Current Display</t>
-  </si>
-  <si>
     <t>TabA</t>
   </si>
   <si>
@@ -847,6 +835,27 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>PV, TA, TR</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>PC, TA, TR</t>
+  </si>
+  <si>
+    <t>PC, PV, TA+C112</t>
+  </si>
+  <si>
+    <t>Show all Spectra on Current Display</t>
+  </si>
+  <si>
+    <t>TabZ</t>
+  </si>
+  <si>
+    <t>Hide all Spectra on Current Display</t>
   </si>
 </sst>
 </file>
@@ -1542,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1589,7 +1598,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1763,7 +1772,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1774,18 +1783,18 @@
         <v>104</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1807,7 +1816,7 @@
         <v>119</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1827,7 @@
         <v>115</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,7 +1838,7 @@
         <v>117</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1925,7 +1934,7 @@
         <v>122</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,13 +1947,13 @@
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1960,10 +1969,10 @@
         <v>133</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,7 +1983,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,10 +1999,10 @@
         <v>167</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,98 +2010,98 @@
         <v>168</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2166,7 +2175,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2179,10 +2188,10 @@
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2438,7 +2447,7 @@
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>100</v>
@@ -2465,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,15 +2491,15 @@
         <v>59</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>59</v>
@@ -2504,7 +2513,7 @@
         <v>120</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2512,123 +2521,132 @@
         <v>123</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C112" s="15"/>
+        <v>189</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C115" s="15"/>
+        <v>188</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>219</v>
+        <v>240</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C121" s="29"/>
+        <v>155</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="29"/>
     </row>
     <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="17"/>
+      <c r="B123" s="15"/>
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B125" s="15" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,7 +2654,7 @@
         <v>46</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2644,11 +2662,16 @@
         <v>46</v>
       </c>
       <c r="B127" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
@@ -2673,6 +2696,9 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AD209-EC5F-7146-8E86-BAB3A83EDDD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34CF6D-6F42-4B44-BE38-C07C51BEC8D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$128</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$126</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
   <si>
     <t>Shortcut</t>
   </si>
@@ -642,15 +642,9 @@
     <t>ZR</t>
   </si>
   <si>
-    <t>Store Zoom</t>
-  </si>
-  <si>
     <t>ZS</t>
   </si>
   <si>
-    <t>Restore Zoom</t>
-  </si>
-  <si>
     <t>Related</t>
   </si>
   <si>
@@ -777,12 +771,6 @@
     <t>ZA</t>
   </si>
   <si>
-    <t>ZI, ZO, ZR, ZA</t>
-  </si>
-  <si>
-    <t>ZI, ZO, ZS, ZA</t>
-  </si>
-  <si>
     <t>Move to Previous Spectrum</t>
   </si>
   <si>
@@ -846,9 +834,6 @@
     <t>PC, TA, TR</t>
   </si>
   <si>
-    <t>PC, PV, TA+C112</t>
-  </si>
-  <si>
     <t>Show all Spectra on Current Display</t>
   </si>
   <si>
@@ -856,6 +841,9 @@
   </si>
   <si>
     <t>Hide all Spectra on Current Display</t>
+  </si>
+  <si>
+    <t>PC, PV, TA</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1598,7 +1586,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1747,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1760,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1783,18 +1771,18 @@
         <v>104</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1805,7 +1793,7 @@
         <v>118</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1816,7 +1804,7 @@
         <v>119</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1815,7 @@
         <v>115</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,7 +1826,7 @@
         <v>117</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +1922,7 @@
         <v>122</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,13 +1935,13 @@
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1969,10 +1957,10 @@
         <v>133</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1983,7 +1971,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1999,10 +1987,10 @@
         <v>167</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,98 +1998,98 @@
         <v>168</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,7 +2163,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,10 +2176,10 @@
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,7 +2435,7 @@
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>100</v>
@@ -2474,7 +2462,7 @@
         <v>43</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,15 +2479,15 @@
         <v>59</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>59</v>
@@ -2513,7 +2501,7 @@
         <v>120</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2521,132 +2509,126 @@
         <v>123</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>176</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C120" s="29"/>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>178</v>
-      </c>
+      <c r="A121" s="17"/>
+      <c r="B121" s="15"/>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C122" s="29"/>
+      <c r="A122" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" s="8"/>
     </row>
     <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B124" s="8"/>
+      <c r="A124" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
-        <v>156</v>
+      <c r="A125" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,24 +2636,14 @@
         <v>46</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" s="15" t="s">
         <v>158</v>
       </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
@@ -2693,12 +2665,6 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="23"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="23"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34CF6D-6F42-4B44-BE38-C07C51BEC8D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51286E40-33A1-444C-810D-670CBDF594E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$127</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="240">
   <si>
     <t>Shortcut</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t>PC, PV, TA</t>
+  </si>
+  <si>
+    <t>Stack 1D spectra</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1976,651 +1982,652 @@
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>166</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C60" s="29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="8"/>
-    </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="28"/>
-    </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="B62" s="28"/>
     </row>
     <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="8"/>
-    </row>
     <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B77" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B83" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="8"/>
-    </row>
     <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B87" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-    </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E92" s="16"/>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B95" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="8"/>
-    </row>
     <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B108" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B108" s="15"/>
-    </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="B109" s="15"/>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B110" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>185</v>
+        <v>120</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B116" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>173</v>
+        <v>235</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B121" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C120" s="29"/>
-    </row>
-    <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="15"/>
+      <c r="C121" s="29"/>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="17"/>
+      <c r="B122" s="15"/>
+    </row>
+    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B124" s="15" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,11 +2643,16 @@
         <v>46</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="23"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
@@ -2665,6 +2677,9 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="23"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51286E40-33A1-444C-810D-670CBDF594E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969CAE40-AEC9-9044-9ED6-1D1AF95CEC28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="242">
   <si>
     <t>Shortcut</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>Set Contour Levels</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2108,534 +2114,535 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="28"/>
-    </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B66" s="15" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="8"/>
-    </row>
     <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B78" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C78" s="29" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="8"/>
-    </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-    </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+    </row>
+    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E93" s="16"/>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="8"/>
-    </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B98" s="8"/>
     </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="22" t="s">
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B109" s="15"/>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>185</v>
+        <v>120</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>173</v>
+        <v>235</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B122" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C121" s="29"/>
-    </row>
-    <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="15"/>
+      <c r="C122" s="29"/>
     </row>
     <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="17"/>
+      <c r="B123" s="15"/>
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B125" s="15" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,7 +2650,7 @@
         <v>46</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2651,11 +2658,16 @@
         <v>46</v>
       </c>
       <c r="B127" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="23"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
@@ -2680,6 +2692,9 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969CAE40-AEC9-9044-9ED6-1D1AF95CEC28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBB4E5-5351-3748-B328-EA1B4E813CE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$128</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$129</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
   <si>
     <t>Shortcut</t>
   </si>
@@ -856,6 +856,12 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Estimate Volumes</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2306,351 +2312,352 @@
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="29"/>
+    </row>
+    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="8"/>
-    </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-    </row>
-    <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+    </row>
+    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E93" s="16"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="8"/>
-    </row>
     <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="18"/>
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B99" s="8"/>
     </row>
     <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
+    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B110" s="15"/>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>231</v>
+        <v>210</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>185</v>
+        <v>120</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B118" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>173</v>
+        <v>235</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B123" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C122" s="29"/>
-    </row>
-    <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="15"/>
+      <c r="C123" s="29"/>
     </row>
     <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="17"/>
+      <c r="B124" s="15"/>
+    </row>
+    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="8"/>
-    </row>
-    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B126" s="15" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2658,7 +2665,7 @@
         <v>46</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2666,35 +2673,43 @@
         <v>46</v>
       </c>
       <c r="B128" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="23"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="23"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="23"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="23"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="23"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="23"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EBB4E5-5351-3748-B328-EA1B4E813CE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B739C-D108-8D4B-A6D3-1067C61E8771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26840" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,12 +410,6 @@
     <t>RC</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>Toggle Grid</t>
   </si>
   <si>
@@ -714,9 +708,6 @@
     <t>ZO or -</t>
   </si>
   <si>
-    <t>Atom Assigner</t>
-  </si>
-  <si>
     <t>Space-Space</t>
   </si>
   <si>
@@ -862,6 +853,15 @@
   </si>
   <si>
     <t>Estimate Volumes</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NmrAtom Assigner </t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1574,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,35 +1772,35 @@
     </row>
     <row r="28" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1808,10 +1808,10 @@
         <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,98 +1819,98 @@
         <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1929,202 +1929,202 @@
         <v>66</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>137</v>
-      </c>
       <c r="C48" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>188</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C61" s="29"/>
     </row>
@@ -2143,7 +2143,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>81</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2180,18 +2180,18 @@
     </row>
     <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,7 +2199,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2212,10 +2212,10 @@
     </row>
     <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>19</v>
@@ -2263,15 +2263,15 @@
         <v>20</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>86</v>
@@ -2279,43 +2279,43 @@
     </row>
     <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C84" s="29"/>
     </row>
@@ -2332,7 +2332,7 @@
         <v>35</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,94 +2401,94 @@
         <v>29</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B98" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="8"/>
-    </row>
     <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>27</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,15 +2524,15 @@
         <v>59</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>59</v>
@@ -2543,102 +2543,102 @@
         <v>60</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B116" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C123" s="29"/>
     </row>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
         <v>46</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
         <v>46</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>46</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vicky/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B739C-D108-8D4B-A6D3-1067C61E8771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B338C4A-C9B2-D14A-997B-1A74EA38BA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26840" yWindow="460" windowWidth="18900" windowHeight="27980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="1480" windowWidth="20100" windowHeight="13160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$141</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="271">
   <si>
     <t>Shortcut</t>
   </si>
@@ -862,6 +862,87 @@
   </si>
   <si>
     <t xml:space="preserve">NmrAtom Assigner </t>
+  </si>
+  <si>
+    <t>Move up a z-plane</t>
+  </si>
+  <si>
+    <t>Move down a z-plane</t>
+  </si>
+  <si>
+    <t>Raise contour level</t>
+  </si>
+  <si>
+    <t>Lower contour level</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>MX, MY, MC</t>
+  </si>
+  <si>
+    <t>MK, MY, MC</t>
+  </si>
+  <si>
+    <t>MK, MX, MC</t>
+  </si>
+  <si>
+    <t>Create Mark at cursor X-axis position</t>
+  </si>
+  <si>
+    <t>Create Mark at cursor Y-axis position</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PX, PY, MC</t>
+  </si>
+  <si>
+    <t>PM, PY, MC</t>
+  </si>
+  <si>
+    <t>PM, PX, MC</t>
+  </si>
+  <si>
+    <t>MK, MX, MY,</t>
+  </si>
+  <si>
+    <t>PM, PX, PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     X-axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Y-axis</t>
+  </si>
+  <si>
+    <t>Create Mark through selected Peak(s)</t>
+  </si>
+  <si>
+    <t>Create Mark through selected Peak(s) on</t>
   </si>
 </sst>
 </file>
@@ -1557,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:XFD108"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1855,861 +1936,981 @@
         <v>103</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>108</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>122</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>124</v>
+        <v>259</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>54</v>
+        <v>260</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>120</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>173</v>
+        <v>124</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="29"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>164</v>
+        <v>66</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>219</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B69" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C61" s="29"/>
-    </row>
-    <row r="62" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="C69" s="29"/>
+    </row>
+    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="28"/>
-    </row>
-    <row r="64" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>193</v>
-      </c>
+      <c r="B71" s="28"/>
     </row>
     <row r="72" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B80" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
+    <row r="83" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C85" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+    <row r="86" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C86" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
+    <row r="87" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B87" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+    <row r="88" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B88" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C88" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+    <row r="89" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B89" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C89" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+    <row r="90" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C90" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+    <row r="91" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B91" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C91" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+    <row r="92" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B92" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="29"/>
-    </row>
-    <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B94" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
+    <row r="95" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+    <row r="98" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B98" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-    </row>
-    <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B101" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+    <row r="102" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E94" s="16"/>
-    </row>
-    <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="E102" s="16"/>
+    </row>
+    <row r="103" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B103" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
+    <row r="104" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
+    <row r="105" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+    <row r="106" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24" t="s">
+    <row r="107" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B109" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+    <row r="110" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+    <row r="111" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B111" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+    <row r="112" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B112" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>184</v>
-      </c>
+      <c r="A119" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="15"/>
     </row>
     <row r="120" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>171</v>
+        <v>59</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>172</v>
+        <v>207</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B131" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="29"/>
-    </row>
-    <row r="124" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="15"/>
-    </row>
-    <row r="125" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="24" t="s">
+      <c r="C131" s="29"/>
+    </row>
+    <row r="132" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="17"/>
+      <c r="B136" s="15"/>
+    </row>
+    <row r="137" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="8"/>
-    </row>
-    <row r="126" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B138" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="s">
+    <row r="139" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="s">
+    <row r="140" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B140" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="20" t="s">
+    <row r="141" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B141" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="23"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="23"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="23"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="23"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="23"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="23"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="23"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="23"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="23"/>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="23"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="23"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="23"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="23"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="23"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="23"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="23"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="23"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vad5/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7098098A-9BE9-464E-82C8-5F3B8190380D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BDDDD-79D4-8A4D-BBDA-645B49D8CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="720" windowWidth="20100" windowHeight="25000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18420" yWindow="460" windowWidth="27700" windowHeight="26840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$166</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="323">
   <si>
     <t>Shortcut</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Move module</t>
-  </si>
-  <si>
-    <t>Project :</t>
   </si>
   <si>
     <t>Load Spectrum</t>
@@ -473,9 +470,6 @@
     <t>Chemical Shift Mapping</t>
   </si>
   <si>
-    <t>Notes Table</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
   </si>
   <si>
     <t>UM, UX, UY, UZ, MC</t>
-  </si>
-  <si>
-    <t>For current strip :</t>
   </si>
   <si>
     <r>
@@ -1018,6 +1009,90 @@
   </si>
   <si>
     <t>KK</t>
+  </si>
+  <si>
+    <t>Import BMRB File</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>File :</t>
+  </si>
+  <si>
+    <t>Edit :</t>
+  </si>
+  <si>
+    <t>Multiplet Table</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Data Table</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Violoation Table</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Restraint Analysis Table</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Notes Editor</t>
+  </si>
+  <si>
+    <t>Set Zoom</t>
+  </si>
+  <si>
+    <t>Restore Zoom</t>
+  </si>
+  <si>
+    <t>In Active Spectrum Display / Strip :</t>
+  </si>
+  <si>
+    <t>Validate Paths</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Estimate Curretn Peak Volumes</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Reorder Peak List Axes</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Make Strip Plot</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>New Macro</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Set Zoom…</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,9 +1328,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1310,6 +1382,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1695,44 +1771,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1741,209 +1817,209 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1952,1624 +2028,1794 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="22"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="26" t="s">
-        <v>20</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="22"/>
+        <v>171</v>
+      </c>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="22"/>
+        <v>192</v>
+      </c>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="22"/>
+        <v>162</v>
+      </c>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35" s="22"/>
+        <v>256</v>
+      </c>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F36" s="22"/>
+        <v>257</v>
+      </c>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" s="22"/>
+        <v>258</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>259</v>
+      </c>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="22"/>
+        <v>260</v>
+      </c>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F41" s="22"/>
+        <v>262</v>
+      </c>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="10" t="s">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="10" t="s">
+      <c r="D46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="10" t="s">
+      <c r="D47" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10" t="s">
+      <c r="D49" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="10" t="s">
+      <c r="D50" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="10" t="s">
+      <c r="D51" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="10"/>
       <c r="D53" s="9"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="22"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="C57" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="22"/>
+        <v>114</v>
+      </c>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="22"/>
+        <v>174</v>
+      </c>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="22"/>
+        <v>222</v>
+      </c>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="22"/>
+      <c r="E63" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" s="22"/>
+        <v>226</v>
+      </c>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="11"/>
-      <c r="F66" s="22"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="22"/>
+        <v>207</v>
+      </c>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F70" s="22"/>
+        <v>214</v>
+      </c>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="22"/>
+        <v>209</v>
+      </c>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="22"/>
+        <v>210</v>
+      </c>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="22"/>
+        <v>212</v>
+      </c>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="22"/>
+        <v>211</v>
+      </c>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="10" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F75" s="22"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="10" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
+      <c r="B78" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="10" t="s">
+      <c r="C78" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="B79" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="12"/>
+      <c r="B84" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="12"/>
+      <c r="B85" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="27"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="12"/>
+      <c r="B86" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="12"/>
+      <c r="B87" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+      <c r="B88" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="12"/>
+      <c r="B90" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="12"/>
+      <c r="B91" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="27"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="12"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="12"/>
+      <c r="B93" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="39"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="12"/>
+      <c r="B94" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="12"/>
+      <c r="B95" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="12"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="12"/>
+      <c r="B98" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="12"/>
+      <c r="B99" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="12"/>
+      <c r="B100" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="12"/>
+      <c r="B101" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="12"/>
+      <c r="B102" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="12"/>
+      <c r="B103" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="12"/>
+      <c r="B104" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="33"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="12"/>
+      <c r="B105" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="12"/>
+      <c r="B106" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="12"/>
+      <c r="B107" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="12"/>
+      <c r="B108" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="12"/>
+      <c r="B109" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="12"/>
+      <c r="B110" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="12"/>
+      <c r="B111" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="12"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="12"/>
+      <c r="B113" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="12"/>
+      <c r="B114" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="12"/>
+      <c r="B115" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="12"/>
+      <c r="B116" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="33"/>
+      <c r="E116" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="12"/>
+      <c r="B117" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="12"/>
+      <c r="B118" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="12"/>
+      <c r="B119" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="12"/>
+      <c r="B120" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="12"/>
+      <c r="B121" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="12"/>
+      <c r="B122" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="12"/>
+      <c r="B123" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="12"/>
+      <c r="B124" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124" s="33"/>
+      <c r="E124" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="12"/>
+      <c r="B125" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125" s="33"/>
+      <c r="E125" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="12"/>
+      <c r="B126" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="33"/>
+      <c r="E126" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="12"/>
+      <c r="B127" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" s="33"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="12"/>
+      <c r="B128" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="33"/>
+      <c r="E128" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="12"/>
+      <c r="B129" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="33"/>
+      <c r="E129" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="12"/>
+      <c r="B130" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" s="33"/>
+      <c r="E130" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="12"/>
+      <c r="B131" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D131" s="33"/>
+      <c r="E131" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="12"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="12"/>
+      <c r="B133" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="12"/>
+      <c r="B134" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="12"/>
+      <c r="B135" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="27"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="12"/>
+      <c r="B136" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="12"/>
+      <c r="B137" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137" s="27"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="12"/>
+      <c r="B138" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="27"/>
+      <c r="E138" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F138" s="21"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="12"/>
+      <c r="B139" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D139" s="27"/>
+      <c r="E139" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="12"/>
+      <c r="B140" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="27"/>
+      <c r="E140" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="12"/>
+      <c r="B141" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="12"/>
+      <c r="B142" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C142" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="22"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="22"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="22"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="22"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="22"/>
-    </row>
-    <row r="88" spans="1:7" ht="31" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="22"/>
-    </row>
-    <row r="89" spans="1:7" ht="31" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="28" t="s">
+      <c r="D142" s="27"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="12"/>
+      <c r="B143" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D143" s="27"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="12"/>
+      <c r="B144" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" s="27"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="12"/>
+      <c r="B145" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" s="27"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="12"/>
+      <c r="B146" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="12"/>
+      <c r="B147" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="22"/>
-    </row>
-    <row r="90" spans="1:7" ht="31" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="22"/>
-    </row>
-    <row r="91" spans="1:7" ht="31" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="22"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="22"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="22"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F95" s="22"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="31" t="s">
+      <c r="C147" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="12"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="12"/>
+      <c r="B149" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="12"/>
+      <c r="B150" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" s="33"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="12"/>
+      <c r="B151" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" s="33"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="12"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="12"/>
+      <c r="B153" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="12"/>
+      <c r="B154" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="33"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="12"/>
+      <c r="B155" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F97" s="22"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="22"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="22"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" s="22"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="10" t="s">
+      <c r="C155" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" s="33"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="12"/>
+      <c r="B156" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156" s="33"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="12"/>
+      <c r="B157" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" s="33"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="12"/>
+      <c r="B158" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C101" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="22"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="22"/>
-    </row>
-    <row r="103" spans="1:6" ht="31" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="10" t="s">
+      <c r="D158" s="33"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="21"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="12"/>
+      <c r="B159" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D103" s="28"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="22"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="22"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="22"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="22"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="22"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="22"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
-      <c r="B109" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="22"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
-      <c r="B110" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="22"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
-      <c r="B111" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="34"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="22"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
-      <c r="B112" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" s="34"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="22"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
-      <c r="B114" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="22"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
-      <c r="B115" s="33" t="s">
+      <c r="C159" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="22"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="22"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="32" t="s">
+      <c r="D159" s="33"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="21"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="21"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="12"/>
+      <c r="B161" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="22"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
-      <c r="B118" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" s="34"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="22"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="22"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="34"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="22"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="13"/>
-      <c r="B121" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="34"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="22"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
-      <c r="B122" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D122" s="34"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="22"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="B123" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D123" s="34"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="22"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="13"/>
-      <c r="B124" s="35" t="s">
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="21"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="12"/>
+      <c r="B162" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" s="33"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="21"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="12"/>
+      <c r="B163" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D163" s="33"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="21"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="12"/>
+      <c r="B164" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="22"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
-      <c r="B125" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125" s="34"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="22"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="22"/>
-    </row>
-    <row r="127" spans="1:6" ht="31" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
-      <c r="B127" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="22"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="22"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
-      <c r="B129" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="22"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
-      <c r="B130" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F130" s="22"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
-      <c r="B131" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F131" s="22"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
-      <c r="B132" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="34"/>
-      <c r="E132" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="22"/>
-    </row>
-    <row r="133" spans="1:6" ht="31" x14ac:dyDescent="0.2">
-      <c r="A133" s="13"/>
-      <c r="B133" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F133" s="22"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
-      <c r="B134" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F134" s="22"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
-      <c r="B135" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="22"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="13"/>
-      <c r="B136" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F136" s="22"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
-      <c r="B137" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F137" s="22"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
-      <c r="B138" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D138" s="34"/>
-      <c r="E138" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F138" s="22"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
-      <c r="B139" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D139" s="34"/>
-      <c r="E139" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F139" s="22"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D140" s="34"/>
-      <c r="E140" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="22"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D141" s="34"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="22"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
-      <c r="B142" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="D142" s="34"/>
-      <c r="E142" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F142" s="22"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D143" s="34"/>
-      <c r="E143" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="F143" s="22"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D144" s="34"/>
-      <c r="E144" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F144" s="22"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D145" s="34"/>
-      <c r="E145" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="F145" s="22"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="22"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="22"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
-      <c r="B148" s="33" t="s">
+      <c r="C164" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D164" s="33"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="12"/>
+      <c r="B165" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D165" s="33"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="21"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="12"/>
+      <c r="B166" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" s="34"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="22"/>
-    </row>
-    <row r="149" spans="1:6" ht="46" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
-      <c r="B149" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="D149" s="34"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="22"/>
-    </row>
-    <row r="150" spans="1:6" ht="46" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D150" s="34"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="22"/>
-    </row>
-    <row r="151" spans="1:6" ht="46" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
-      <c r="B151" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C151" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="34"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="22"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B160" s="3"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:C21">

--- a/doc/static/AnalysisShortcuts.xlsx
+++ b/doc/static/AnalysisShortcuts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vad5/PycharmProjects/Git/AnalysisV3/doc/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejb66/PycharmProjects/Git/AnalysisV3/doc/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BDDDD-79D4-8A4D-BBDA-645B49D8CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434400BA-5372-D94D-B827-4F0528A50EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18420" yWindow="460" windowWidth="27700" windowHeight="26840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="460" windowWidth="27700" windowHeight="26840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$166</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$168</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="330">
   <si>
     <t>Shortcut</t>
   </si>
@@ -1093,6 +1093,27 @@
   </si>
   <si>
     <t>Set Zoom…</t>
+  </si>
+  <si>
+    <t>Open User Macro</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Run Macro</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>OM, RM</t>
+  </si>
+  <si>
+    <t>NM, RM</t>
+  </si>
+  <si>
+    <t>NM, OM</t>
   </si>
 </sst>
 </file>
@@ -1380,12 +1401,12 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1771,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1789,14 +1810,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
@@ -2910,7 +2931,7 @@
       <c r="B93" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="26"/>
       <c r="E93" s="12"/>
       <c r="F93" s="21"/>
@@ -3118,7 +3139,7 @@
       <c r="B111" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="39" t="s">
         <v>184</v>
       </c>
       <c r="D111" s="33"/>
@@ -3738,41 +3759,47 @@
       <c r="C162" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D162" s="33"/>
+      <c r="D162" s="33" t="s">
+        <v>327</v>
+      </c>
       <c r="E162" s="12"/>
       <c r="F162" s="21"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="32" t="s">
-        <v>147</v>
+        <v>323</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D163" s="33"/>
+        <v>324</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>328</v>
+      </c>
       <c r="E163" s="12"/>
       <c r="F163" s="21"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
-      <c r="B164" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D164" s="33"/>
+      <c r="B164" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>329</v>
+      </c>
       <c r="E164" s="12"/>
       <c r="F164" s="21"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
-      <c r="B165" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C165" s="40" t="s">
-        <v>150</v>
+      <c r="B165" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="D165" s="33"/>
       <c r="E165" s="12"/>
@@ -3783,18 +3810,36 @@
       <c r="B166" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C166" s="40" t="s">
-        <v>149</v>
+      <c r="C166" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="D166" s="33"/>
       <c r="E166" s="12"/>
       <c r="F166" s="21"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="3"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="33"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="21"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="3"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D168" s="33"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="21"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B169" s="3"/>
@@ -3816,6 +3861,12 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:C21">
